--- a/wyniki_BAT/bat_ rastrigin.bat .xlsx
+++ b/wyniki_BAT/bat_ rastrigin.bat .xlsx
@@ -535,25 +535,25 @@
         <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9949711533007842</v>
+        <v>-1.0173248296537769E-5</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.700456303891682E-5</v>
+        <v>-1.9898942908214745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9949605899414351</v>
+        <v>3.979831274830687</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9899465755366086</v>
+        <v>15.839056976120451</v>
       </c>
       <c r="H2" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I2" t="n">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="K2" t="s">
         <v>102</v>
@@ -565,25 +565,25 @@
         <v>40.0</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.9899148217294234</v>
+        <v>-0.9950220929654748</v>
       </c>
       <c r="O2" t="n">
-        <v>3.8334444424659084E-5</v>
+        <v>0.9949948448944492</v>
       </c>
       <c r="P2" t="n">
-        <v>3.9798314834232826</v>
+        <v>1.9899191725879497</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.839058636447167</v>
+        <v>3.95977831343311</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S2" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U2" t="s">
         <v>102</v>
@@ -595,25 +595,25 @@
         <v>70.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9949405923248263</v>
+        <v>4.615673332253353E-6</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.9949690619144019</v>
+        <v>-1.2283006403264104E-5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.98991820030502</v>
+        <v>3.415849647581126E-8</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.9597744439051694</v>
+        <v>1.1668028814880104E-15</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.0</v>
+        <v>40.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AE2" t="s">
         <v>102</v>
@@ -625,25 +625,25 @@
         <v>100.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.9949725598463955</v>
+        <v>1.989954838365836</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9949663472170004</v>
+        <v>-0.9949593903699949</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.9899181644072925</v>
+        <v>4.974790607155022</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.9597743010380886</v>
+        <v>24.74854158503783</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM2" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO2" t="s">
         <v>102</v>
@@ -655,25 +655,25 @@
         <v>200.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-2.672933179813898E-5</v>
+        <v>0.9949710639035075</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.1489682325325692E-6</v>
+        <v>-8.851214343289276E-6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.437099079737436E-7</v>
+        <v>0.9949591032549208</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.0652537649821858E-14</v>
+        <v>0.989943617149836</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW2" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="AY2" t="s">
         <v>102</v>
@@ -690,25 +690,25 @@
         <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9949419830430604</v>
+        <v>-0.9949365504910948</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.9899273951894747</v>
+        <v>-2.984803655752369</v>
       </c>
       <c r="F3" t="n">
-        <v>4.974790348162529</v>
+        <v>9.949560930278697</v>
       </c>
       <c r="G3" t="n">
-        <v>24.748539008171054</v>
+        <v>98.99376270532828</v>
       </c>
       <c r="H3" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I3" t="n">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K3" t="s">
         <v>102</v>
@@ -720,25 +720,25 @@
         <v>40.0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9949800175178485</v>
+        <v>4.825777507496266E-5</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.9949317376745433</v>
+        <v>3.5038059924856105E-5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.989918348312564</v>
+        <v>7.05577193116369E-7</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.959775032951003</v>
+        <v>4.978391754459739E-13</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S3" t="n">
-        <v>62.0</v>
+        <v>32.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U3" t="s">
         <v>102</v>
@@ -750,25 +750,25 @@
         <v>70.0</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.5119447069132015E-5</v>
+        <v>-6.159070277498211E-5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.9949283408677115</v>
+        <v>-6.888720958270879E-6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9949592844571455</v>
+        <v>7.619980380013658E-7</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9899439777274751</v>
+        <v>5.806410099179309E-13</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC3" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE3" t="s">
         <v>102</v>
@@ -780,25 +780,25 @@
         <v>100.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-2.942820421251602E-5</v>
+        <v>-1.1925335576731481E-5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.5093101116039898E-5</v>
+        <v>-3.154681637849223E-6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.1700541097402493E-7</v>
+        <v>3.018845973201678E-8</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.709134839200546E-14</v>
+        <v>9.113431009915987E-16</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM3" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AO3" t="s">
         <v>102</v>
@@ -810,22 +810,22 @@
         <v>200.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-5.3846121008091337E-5</v>
+        <v>-0.994961389362055</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.9949052857875388</v>
+        <v>-4.057295662687553E-5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.994960196735903</v>
+        <v>0.9949593851808167</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9899457930887468</v>
+        <v>0.9899441781593888</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW3" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX3" t="n">
         <v>0.05000000000001137</v>
@@ -845,25 +845,25 @@
         <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.338230163861168E-5</v>
+        <v>0.9949801714486847</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.899333095383559E-6</v>
+        <v>1.6554905751699193E-5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0877756650984338E-6</v>
+        <v>0.994959203415096</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18325589758034E-12</v>
+        <v>0.9899438164604024</v>
       </c>
       <c r="H4" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I4" t="n">
-        <v>75.0</v>
+        <v>97.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="K4" t="s">
         <v>102</v>
@@ -875,25 +875,25 @@
         <v>40.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9899508112782682</v>
+        <v>6.603038280383147E-6</v>
       </c>
       <c r="O4" t="n">
-        <v>5.6375140764091885E-6</v>
+        <v>0.9949277808054066</v>
       </c>
       <c r="P4" t="n">
-        <v>3.979831491523747</v>
+        <v>0.9949592545465791</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.839058700924133</v>
+        <v>0.9899439182078843</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S4" t="n">
-        <v>69.0</v>
+        <v>60.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="U4" t="s">
         <v>102</v>
@@ -905,25 +905,25 @@
         <v>70.0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.9169856181913644E-5</v>
+        <v>2.6078741017189717E-5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.5825016167178806E-5</v>
+        <v>-0.9949963912832349</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.011218900894619E-7</v>
+        <v>0.9949594746549764</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.067439269104996E-14</v>
+        <v>0.9899443562057065</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE4" t="s">
         <v>102</v>
@@ -935,25 +935,25 @@
         <v>100.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9949430712814913</v>
+        <v>-1.4202832159104236E-6</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.9948918541688101</v>
+        <v>-0.994930419775502</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.989919046625154</v>
+        <v>0.9949592153837692</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.9597778121215614</v>
+        <v>0.9899438402770856</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM4" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.049999999999954525</v>
       </c>
       <c r="AO4" t="s">
         <v>102</v>
@@ -965,25 +965,25 @@
         <v>200.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9949563446154152</v>
+        <v>-0.9949463454586737</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.190538994979301E-6</v>
+        <v>1.5057272977178901E-6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.9949590634809375</v>
+        <v>0.9949590875047534</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9899435380028643</v>
+        <v>0.9899435858082914</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW4" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.18000000000000682</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="AY4" t="s">
         <v>102</v>
@@ -1000,25 +1000,25 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9949911892467289</v>
+        <v>-0.9950215568225019</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9949384530373652</v>
+        <v>0.99504325612</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9899184050878134</v>
+        <v>1.9899203190395909</v>
       </c>
       <c r="G5" t="n">
-        <v>3.959775258907227</v>
+        <v>3.959782876126627</v>
       </c>
       <c r="H5" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I5" t="n">
-        <v>39.0</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K5" t="s">
         <v>102</v>
@@ -1030,25 +1030,25 @@
         <v>40.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.355924304570783E-5</v>
+        <v>-0.9949339857315477</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.9899522467657764</v>
+        <v>-0.9948366619259262</v>
       </c>
       <c r="P5" t="n">
-        <v>3.9798315440307555</v>
+        <v>1.9899211848883027</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.839059118862227</v>
+        <v>3.9597863220672664</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S5" t="n">
-        <v>65.0</v>
+        <v>27.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U5" t="s">
         <v>102</v>
@@ -1060,25 +1060,25 @@
         <v>70.0</v>
       </c>
       <c r="X5" t="n">
-        <v>-2.1209678213514998E-6</v>
+        <v>0.9949956349084563</v>
       </c>
       <c r="Y5" t="n">
-        <v>-7.195103461333821E-6</v>
+        <v>-0.9949571131057874</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.1163130864133564E-8</v>
+        <v>1.989918386071075</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.2461549068977136E-16</v>
+        <v>3.959775183223712</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC5" t="n">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE5" t="s">
         <v>102</v>
@@ -1090,25 +1090,25 @@
         <v>100.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-8.261139678523821E-6</v>
+        <v>-1.9899127578882685</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9949104355820731</v>
+        <v>1.3413603909682577E-5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.9949595313533344</v>
+        <v>3.979831226304139</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9899444690308468</v>
+        <v>15.839056589865505</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.0</v>
+        <v>56.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="AO5" t="s">
         <v>102</v>
@@ -1120,25 +1120,25 @@
         <v>200.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9949743111767292</v>
+        <v>-4.336504733661822E-6</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9949573656393788</v>
+        <v>0.9949723723430149</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.9899181632200253</v>
+        <v>0.9949590982304919</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.9597742963129594</v>
+        <v>0.9899436071516337</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW5" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="AY5" t="s">
         <v>102</v>
@@ -1155,19 +1155,19 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.984820452105997</v>
+        <v>-0.995039057407131</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9949545258903039</v>
+        <v>0.9949774985775275</v>
       </c>
       <c r="F6" t="n">
-        <v>9.949560547321205</v>
+        <v>1.9899194671612328</v>
       </c>
       <c r="G6" t="n">
-        <v>98.99375508481064</v>
+        <v>3.959779485787245</v>
       </c>
       <c r="H6" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I6" t="n">
         <v>57.0</v>
@@ -1185,25 +1185,25 @@
         <v>40.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9898841831068972</v>
+        <v>0.9949697361175533</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9898190476323347</v>
+        <v>-3.8889258035449995E-5</v>
       </c>
       <c r="P6" t="n">
-        <v>7.959664256201027</v>
+        <v>0.9949593815613547</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.356255071444245</v>
+        <v>0.9899441709569533</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S6" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U6" t="s">
         <v>102</v>
@@ -1215,25 +1215,25 @@
         <v>70.0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.94700218148552E-5</v>
+        <v>-0.9949780636168272</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.7811907744308454E-5</v>
+        <v>7.847395101377204E-6</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.6252830543380696E-7</v>
+        <v>0.994959144140168</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.1393243332746902E-13</v>
+        <v>0.9899436985081355</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC6" t="n">
-        <v>28.0</v>
+        <v>69.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AE6" t="s">
         <v>102</v>
@@ -1245,25 +1245,25 @@
         <v>100.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.9949439631308408</v>
+        <v>1.7178904904309075E-5</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.9949422891991146</v>
+        <v>3.280742807421267E-5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.9899182098853956</v>
+        <v>2.720832625868752E-7</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.9597744820334975</v>
+        <v>7.402930177991849E-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM6" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AO6" t="s">
         <v>102</v>
@@ -1275,25 +1275,25 @@
         <v>200.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.2404425085742856E-5</v>
+        <v>-1.9899218911228276</v>
       </c>
       <c r="AS6" t="n">
-        <v>-6.66945139025948E-6</v>
+        <v>-0.9949457753567877</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.935133463528473E-8</v>
+        <v>4.9747902989189114</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.5485275375781595E-15</v>
+        <v>24.748538518217714</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW6" t="n">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.22000000000002728</v>
       </c>
       <c r="AY6" t="s">
         <v>102</v>
@@ -1310,25 +1310,25 @@
         <v>20.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9949195123420295</v>
+        <v>1.0701284578960266E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9948151722417696</v>
+        <v>2.9849384754267607</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9899224990240825</v>
+        <v>8.95460486663049</v>
       </c>
       <c r="G7" t="n">
-        <v>3.9597915521222493</v>
+        <v>80.18494831748245</v>
       </c>
       <c r="H7" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I7" t="n">
-        <v>64.0</v>
+        <v>80.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="s">
         <v>102</v>
@@ -1340,25 +1340,25 @@
         <v>40.0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.855779423439907E-10</v>
+        <v>-0.994966262351513</v>
       </c>
       <c r="O7" t="n">
-        <v>1.989866735409981</v>
+        <v>-0.9949215117152572</v>
       </c>
       <c r="P7" t="n">
-        <v>3.979831600421594</v>
+        <v>1.989918399028209</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.839059567714306</v>
+        <v>3.9597752347909903</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S7" t="n">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="U7" t="s">
         <v>102</v>
@@ -1370,25 +1370,25 @@
         <v>70.0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.4497844204835438E-5</v>
+        <v>-1.9899222065394182</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.1450019795373355E-5</v>
+        <v>-5.233034386843615E-5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.10344758500014E-7</v>
+        <v>3.9798317535360077</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.424491742842921E-14</v>
+        <v>15.839060786453494</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC7" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.010000000000047748</v>
       </c>
       <c r="AE7" t="s">
         <v>102</v>
@@ -1400,25 +1400,25 @@
         <v>100.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.974468262836584E-5</v>
+        <v>0.9949437088857211</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.0124325013714614E-5</v>
+        <v>-3.736334244506494E-5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.118378289623251E-7</v>
+        <v>0.994959378245639</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.590806605342614E-13</v>
+        <v>0.9899441643589485</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM7" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO7" t="s">
         <v>102</v>
@@ -1430,25 +1430,25 @@
         <v>200.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>8.315953133633589E-6</v>
+        <v>-0.9949559632002967</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.4747535757960503E-6</v>
+        <v>0.9949447815760827</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.49348551303774E-8</v>
+        <v>1.9899181536753332</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.2304989776536015E-16</v>
+        <v>3.959774258326647</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW7" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.14999999999997726</v>
       </c>
       <c r="AY7" t="s">
         <v>102</v>
@@ -1465,22 +1465,22 @@
         <v>20.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.98992636685332</v>
+        <v>-1.888761469005462E-5</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9950946229789183</v>
+        <v>1.9898142094667723</v>
       </c>
       <c r="F8" t="n">
-        <v>4.974793954066186</v>
+        <v>3.9798331637958704</v>
       </c>
       <c r="G8" t="n">
-        <v>24.74857488541348</v>
+        <v>15.839072011649447</v>
       </c>
       <c r="H8" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I8" t="n">
-        <v>74.0</v>
+        <v>59.0</v>
       </c>
       <c r="J8" t="n">
         <v>0.01999999999998181</v>
@@ -1495,25 +1495,25 @@
         <v>40.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9899144021492639</v>
+        <v>0.9949763384297403</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.9899644171926016</v>
+        <v>0.9949669145039235</v>
       </c>
       <c r="P8" t="n">
-        <v>7.959662921208199</v>
+        <v>1.9899181898996723</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.356233819256644</v>
+        <v>3.959774402493588</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S8" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U8" t="s">
         <v>102</v>
@@ -1525,25 +1525,25 @@
         <v>70.0</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.9949863493220347</v>
+        <v>-0.994917602552845</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9949673263056737</v>
+        <v>0.9949809611592678</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.9899182814330594</v>
+        <v>1.989918546904601</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.9597747667815004</v>
+        <v>3.959775823314919</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC8" t="n">
-        <v>47.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="AE8" t="s">
         <v>102</v>
@@ -1555,25 +1555,25 @@
         <v>100.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.07128459735801E-5</v>
+        <v>0.9949375043743343</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.583376443057359E-5</v>
+        <v>3.380949631047947E-5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.418861472288427E-7</v>
+        <v>0.9949593724323442</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.952633671127504E-13</v>
+        <v>0.9899441527909643</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM8" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="AO8" t="s">
         <v>102</v>
@@ -1585,25 +1585,25 @@
         <v>200.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-3.5323925105697275E-6</v>
+        <v>1.353513128384895E-5</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.994962793647845</v>
+        <v>-1.2007179012749887E-5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9949590629937646</v>
+        <v>6.49480398351443E-8</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.98994353703343</v>
+        <v>4.218247878427491E-15</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW8" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY8" t="s">
         <v>102</v>
@@ -1620,25 +1620,25 @@
         <v>20.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9949434960255565</v>
+        <v>-0.9950100357044971</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9949145398283452</v>
+        <v>0.9948945504058813</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9899185452521273</v>
+        <v>1.9899194524519146</v>
       </c>
       <c r="G9" t="n">
-        <v>3.959775816738343</v>
+        <v>3.9597794272465276</v>
       </c>
       <c r="H9" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I9" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K9" t="s">
         <v>102</v>
@@ -1650,25 +1650,25 @@
         <v>40.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9899287893599118</v>
+        <v>-2.2143640996818817E-5</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.9899354135968326</v>
+        <v>0.9949711159405457</v>
       </c>
       <c r="P9" t="n">
-        <v>7.959662541761716</v>
+        <v>0.9949591852488133</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.35622777872459</v>
+        <v>0.9899437803109824</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S9" t="n">
-        <v>52.0</v>
+        <v>70.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U9" t="s">
         <v>102</v>
@@ -1680,25 +1680,25 @@
         <v>70.0</v>
       </c>
       <c r="X9" t="n">
-        <v>-1.9899255797173556</v>
+        <v>-0.99500704242754</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.5563798592028697E-6</v>
+        <v>-9.495267086619493E-7</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.9798312283295765</v>
+        <v>0.9949595218787195</v>
       </c>
       <c r="AA9" t="n">
-        <v>15.839056605987306</v>
+        <v>0.9899444501771301</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC9" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.03999999999996362</v>
       </c>
       <c r="AE9" t="s">
         <v>102</v>
@@ -1710,25 +1710,25 @@
         <v>100.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-1.846631326398692E-5</v>
+        <v>0.9949707655784651</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.52242176843053E-5</v>
+        <v>0.9949766169635866</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.1363531982055974E-7</v>
+        <v>1.9899182074522876</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.2912985910720898E-14</v>
+        <v>3.9597744723501256</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM9" t="n">
-        <v>50.0</v>
+        <v>27.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO9" t="s">
         <v>102</v>
@@ -1740,25 +1740,25 @@
         <v>200.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.9949780889750286</v>
+        <v>2.3578924894461637E-5</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9949853801732228</v>
+        <v>2.1997506747524605E-5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.9899183310236488</v>
+        <v>2.0629920172154925E-7</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.9597749641439437</v>
+        <v>4.255936063094847E-14</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW9" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="AY9" t="s">
         <v>102</v>
@@ -1775,25 +1775,25 @@
         <v>20.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9949568544506378</v>
+        <v>-8.263869316462276E-5</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9948594902555462</v>
+        <v>0.995028430636351</v>
       </c>
       <c r="F10" t="n">
-        <v>1.989920064066066</v>
+        <v>0.9949613778452999</v>
       </c>
       <c r="G10" t="n">
-        <v>3.959781861372696</v>
+        <v>0.9899481434038176</v>
       </c>
       <c r="H10" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I10" t="n">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K10" t="s">
         <v>102</v>
@@ -1805,25 +1805,25 @@
         <v>40.0</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.4444364826729955E-5</v>
+        <v>0.9950436342755088</v>
       </c>
       <c r="O10" t="n">
-        <v>1.9899331131419873</v>
+        <v>-0.9949091405786071</v>
       </c>
       <c r="P10" t="n">
-        <v>3.979831395415328</v>
+        <v>1.9899200325567392</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.839057935933516</v>
+        <v>3.9597817359706142</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S10" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="U10" t="s">
         <v>102</v>
@@ -1835,25 +1835,25 @@
         <v>70.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9949919652037589</v>
+        <v>2.637591561938497E-5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.9898994306463813</v>
+        <v>0.9949933707964643</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.974790500352153</v>
+        <v>0.9949594343320491</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.748540522394027</v>
+        <v>0.9899442759663513</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC10" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AE10" t="s">
         <v>102</v>
@@ -1865,25 +1865,25 @@
         <v>100.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-2.6502377276977276E-5</v>
+        <v>-1.8898947611669513E-5</v>
       </c>
       <c r="AI10" t="n">
-        <v>-5.392811367425549E-6</v>
+        <v>3.0026911636752172E-5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.451155604570431E-7</v>
+        <v>2.4973310885911815E-7</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.1058525886761732E-14</v>
+        <v>6.236662566044015E-14</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM10" t="n">
-        <v>28.0</v>
+        <v>50.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO10" t="s">
         <v>102</v>
@@ -1895,25 +1895,25 @@
         <v>200.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.99493773903715</v>
+        <v>-1.1098136707536988E-5</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.9949164754284182</v>
+        <v>-2.1880010365517107E-6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.9899185532866888</v>
+        <v>2.5385457291804414E-8</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.9597758487145884</v>
+        <v>6.444214419140259E-16</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW10" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.2300000000000182</v>
       </c>
       <c r="AY10" t="s">
         <v>102</v>
@@ -1930,25 +1930,25 @@
         <v>20.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9950018753798212</v>
+        <v>-1.989913723329338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9949284810721128</v>
+        <v>1.9899207324554826</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9899186652279326</v>
+        <v>7.959662395848511</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9597762942225168</v>
+        <v>63.35622545588486</v>
       </c>
       <c r="H11" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I11" t="n">
-        <v>85.0</v>
+        <v>47.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="s">
         <v>102</v>
@@ -1960,25 +1960,25 @@
         <v>40.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.0632667184765146E-5</v>
+        <v>-3.0614445908423184E-5</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.9949287571801495</v>
+        <v>2.1332886330694004E-5</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9949593185943364</v>
+        <v>2.7622851206388077E-7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9899440456577062</v>
+        <v>7.630219087702552E-14</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S11" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U11" t="s">
         <v>102</v>
@@ -1990,25 +1990,25 @@
         <v>70.0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9949433036868556</v>
+        <v>0.9949401034635872</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9949634934354817</v>
+        <v>-2.15071953567269E-5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.9899181654867633</v>
+        <v>0.9949592169782164</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.9597743053342054</v>
+        <v>0.9899438434499056</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC11" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AE11" t="s">
         <v>102</v>
@@ -2020,25 +2020,25 @@
         <v>100.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-6.292478632705274E-8</v>
+        <v>0.9949936684434834</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1.9899237365659614</v>
+        <v>0.9949692509341953</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.9798312167528564</v>
+        <v>1.9899183798598337</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.839056513840521</v>
+        <v>3.959775158503985</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM11" t="n">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AO11" t="s">
         <v>102</v>
@@ -2050,25 +2050,25 @@
         <v>200.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.9949588866257659</v>
+        <v>0.9949744844239711</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.9949718437027599</v>
+        <v>0.99494416395032</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.9899181487811717</v>
+        <v>1.989918205522013</v>
       </c>
       <c r="AU11" t="n">
-        <v>3.959774238848685</v>
+        <v>3.9597744646679485</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW11" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1699999999999875</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AY11" t="s">
         <v>102</v>
@@ -2085,22 +2085,22 @@
         <v>20.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.937161291969916E-6</v>
+        <v>1.9899047030644954</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9949328169826708</v>
+        <v>7.694842972161345E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9949592088870993</v>
+        <v>3.979831213529444</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9899438273492426</v>
+        <v>15.839056488183246</v>
       </c>
       <c r="H12" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I12" t="n">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="J12" t="n">
         <v>0.009999999999990905</v>
@@ -2115,25 +2115,25 @@
         <v>40.0</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.9900275927169273</v>
+        <v>-0.994945514860401</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9949663627432578</v>
+        <v>-1.9899210568591121</v>
       </c>
       <c r="P12" t="n">
-        <v>4.974792894388752</v>
+        <v>4.974790297208525</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.74856434206082</v>
+        <v>24.748538501200084</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S12" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U12" t="s">
         <v>102</v>
@@ -2145,25 +2145,25 @@
         <v>70.0</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.9949628357503526</v>
+        <v>0.9949391044274946</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.7819781345070743E-5</v>
+        <v>0.9949686178563911</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.9949591235863515</v>
+        <v>1.9899182095954764</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9899436576077207</v>
+        <v>3.959774480879666</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC12" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE12" t="s">
         <v>102</v>
@@ -2175,25 +2175,25 @@
         <v>100.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9949211419575892</v>
+        <v>1.8593732877917224E-5</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.9949598835529234</v>
+        <v>-5.908475065343795E-5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.9899183932793</v>
+        <v>7.611777874672043E-7</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.9597752119112712</v>
+        <v>5.793916241334685E-13</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM12" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AO12" t="s">
         <v>102</v>
@@ -2205,25 +2205,25 @@
         <v>200.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.9949522609305348</v>
+        <v>0.9949335213888093</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.344710508581008E-6</v>
+        <v>7.641881365295319E-6</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9949590708236542</v>
+        <v>0.9949591937674178</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9899435526142694</v>
+        <v>0.9899437972623101</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW12" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="AY12" t="s">
         <v>102</v>
@@ -2240,25 +2240,25 @@
         <v>20.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.625380926373226E-5</v>
+        <v>-0.99503818762711</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9949164133794038</v>
+        <v>-1.9898586245994259</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9949600384368615</v>
+        <v>4.97479207151493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.989945478086281</v>
+        <v>24.748556154807808</v>
       </c>
       <c r="H13" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.010000000000047748</v>
       </c>
       <c r="K13" t="s">
         <v>102</v>
@@ -2270,25 +2270,25 @@
         <v>40.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9898971816899134</v>
+        <v>-4.8370532226466186E-5</v>
       </c>
       <c r="O13" t="n">
-        <v>2.6097622303658112E-5</v>
+        <v>-9.09039747904841E-6</v>
       </c>
       <c r="P13" t="n">
-        <v>3.9798313705346082</v>
+        <v>4.805738242907864E-7</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.839057737891379</v>
+        <v>2.3095120059347167E-13</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S13" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U13" t="s">
         <v>102</v>
@@ -2300,25 +2300,25 @@
         <v>70.0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.9899181491710278</v>
+        <v>0.9949821420089802</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.8169842359218458E-5</v>
+        <v>0.9949779632239879</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.979831354914559</v>
+        <v>1.989918297792844</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.839057613561055</v>
+        <v>3.95977483189077</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC13" t="n">
-        <v>56.0</v>
+        <v>46.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.049999999999954525</v>
       </c>
       <c r="AE13" t="s">
         <v>102</v>
@@ -2330,25 +2330,25 @@
         <v>100.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-4.235941405635666E-5</v>
+        <v>-0.9949550039963925</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.546593558937525E-5</v>
+        <v>0.9949799938580133</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.846389032309162E-7</v>
+        <v>1.9899182072438535</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.3487486652486534E-13</v>
+        <v>3.959774471520592</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM13" t="n">
-        <v>64.0</v>
+        <v>35.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.03999999999996362</v>
       </c>
       <c r="AO13" t="s">
         <v>102</v>
@@ -2360,25 +2360,25 @@
         <v>200.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-7.681579759602498E-6</v>
+        <v>0.9949440630124964</v>
       </c>
       <c r="AS13" t="n">
-        <v>-1.5880416814221224E-5</v>
+        <v>0.9949560859739593</v>
       </c>
       <c r="AT13" t="n">
-        <v>6.17384898760065E-8</v>
+        <v>1.989918157599078</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.811641132169757E-15</v>
+        <v>3.9597742739425095</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW13" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1699999999999875</v>
+        <v>0.08000000000004093</v>
       </c>
       <c r="AY13" t="s">
         <v>102</v>
@@ -2395,25 +2395,25 @@
         <v>20.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.995052159216743</v>
+        <v>-1.0512270165382833E-5</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9949109590129431</v>
+        <v>-8.276042669167985E-5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.9899202992933631</v>
+        <v>1.380768438252744E-6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9597827975397877</v>
+        <v>1.9065214800749218E-12</v>
       </c>
       <c r="H14" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I14" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="s">
         <v>102</v>
@@ -2425,25 +2425,25 @@
         <v>40.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9949539526316449</v>
+        <v>-0.994977303120515</v>
       </c>
       <c r="O14" t="n">
-        <v>6.095183640220816E-6</v>
+        <v>-6.508935329443006E-6</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9949590688162218</v>
+        <v>0.9949591345837483</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9899435486196431</v>
+        <v>0.9899436794916413</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S14" t="n">
-        <v>52.0</v>
+        <v>29.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="U14" t="s">
         <v>102</v>
@@ -2455,25 +2455,25 @@
         <v>70.0</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.9949695026205706</v>
+        <v>-8.496745823770359E-6</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.4471833549053129E-5</v>
+        <v>1.0203865843951248E-6</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.994959122051359</v>
+        <v>1.4529419445352687E-8</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.989943654553211</v>
+        <v>2.1110402941899278E-16</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC14" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="AE14" t="s">
         <v>102</v>
@@ -2485,25 +2485,25 @@
         <v>100.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.9949643810764965</v>
+        <v>-1.8619465197981935E-5</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.9949443924522027</v>
+        <v>0.9949637728254909</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.9899181609663898</v>
+        <v>0.9949591311017407</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.959774287343859</v>
+        <v>0.9899436725627309</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM14" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.03999999999996362</v>
       </c>
       <c r="AO14" t="s">
         <v>102</v>
@@ -2515,25 +2515,25 @@
         <v>200.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.1767675672443915E-5</v>
+        <v>-1.4023336140176685E-6</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.9949576789475554</v>
+        <v>-1.3800076150954964E-5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.9949591512800033</v>
+        <v>3.8172355942833747E-8</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9899437127158246</v>
+        <v>1.4571287582263949E-15</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW14" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.21000000000000796</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY14" t="s">
         <v>102</v>
@@ -2550,25 +2550,25 @@
         <v>20.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.99007380998732</v>
+        <v>1.6694806077831236E-5</v>
       </c>
       <c r="E15" t="n">
-        <v>1.8104973159987396E-5</v>
+        <v>-0.9949800378119313</v>
       </c>
       <c r="F15" t="n">
-        <v>3.979836424748175</v>
+        <v>0.9949592032002279</v>
       </c>
       <c r="G15" t="n">
-        <v>15.839097967752336</v>
+        <v>0.9899438160328324</v>
       </c>
       <c r="H15" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I15" t="n">
-        <v>36.0</v>
+        <v>83.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K15" t="s">
         <v>102</v>
@@ -2580,19 +2580,19 @@
         <v>40.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9948363734045178</v>
+        <v>-0.9949804430953818</v>
       </c>
       <c r="O15" t="n">
-        <v>1.9898817522257537</v>
+        <v>-0.9948953741881175</v>
       </c>
       <c r="P15" t="n">
-        <v>4.9747933957776205</v>
+        <v>1.9899190020888398</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.748569330672627</v>
+        <v>3.9597776348742437</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S15" t="n">
         <v>26.0</v>
@@ -2610,25 +2610,25 @@
         <v>70.0</v>
       </c>
       <c r="X15" t="n">
-        <v>-6.918600969659728E-6</v>
+        <v>4.365648965330645E-6</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.1475785107735706E-5</v>
+        <v>7.247190351079876E-6</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.060484511900995E-7</v>
+        <v>1.4201038567307478E-8</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.245596423783882E-14</v>
+        <v>2.0166949639015443E-16</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC15" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AE15" t="s">
         <v>102</v>
@@ -2640,25 +2640,25 @@
         <v>100.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.9949751314211791</v>
+        <v>1.9898802655401469</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.9949009504180927</v>
+        <v>9.559926726069935E-7</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.9899188280116853</v>
+        <v>3.9798313930789995</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.959776942075399</v>
+        <v>15.83905791733713</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM15" t="n">
-        <v>47.0</v>
+        <v>88.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.16999999999995907</v>
       </c>
       <c r="AO15" t="s">
         <v>102</v>
@@ -2670,25 +2670,25 @@
         <v>200.0</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.443959597996615E-6</v>
+        <v>0.9949546649573371</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.9949593877705879</v>
+        <v>-3.9503008398964254E-6</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9949590681982734</v>
+        <v>0.9949590633186958</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9899435473899765</v>
+        <v>0.9899435376800164</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW15" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="AY15" t="s">
         <v>102</v>
@@ -2705,25 +2705,25 @@
         <v>20.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.2357648083499466E-5</v>
+        <v>0.9950413105866566</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9949879101207758</v>
+        <v>-0.9950193987748337</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9949594347264359</v>
+        <v>1.989920201574094</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9899442767511488</v>
+        <v>3.959782408632683</v>
       </c>
       <c r="H16" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I16" t="n">
-        <v>84.0</v>
+        <v>100.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="K16" t="s">
         <v>102</v>
@@ -2735,25 +2735,25 @@
         <v>40.0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.994918879090775</v>
+        <v>-0.9949730930391926</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.989923586020639</v>
+        <v>-0.9949565379398285</v>
       </c>
       <c r="P16" t="n">
-        <v>4.9747905866137145</v>
+        <v>1.9899181564958184</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.748541380660427</v>
+        <v>3.9597742695517164</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S16" t="n">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U16" t="s">
         <v>102</v>
@@ -2765,25 +2765,25 @@
         <v>70.0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.9899490925083165</v>
+        <v>-2.8370824495185038E-5</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.9899338415219685</v>
+        <v>1.9899286951762347</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.959662742544733</v>
+        <v>3.979831403893588</v>
       </c>
       <c r="AA16" t="n">
-        <v>63.35623097505474</v>
+        <v>15.839058003417605</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC16" t="n">
-        <v>26.0</v>
+        <v>65.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE16" t="s">
         <v>102</v>
@@ -2795,25 +2795,25 @@
         <v>100.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.7194453103237542E-5</v>
+        <v>1.990699607600245E-6</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.9949431770239655</v>
+        <v>-0.9949448396955418</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.9949591631459072</v>
+        <v>0.9949590956312129</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.9899437363280039</v>
+        <v>0.989943601979281</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM16" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="AO16" t="s">
         <v>102</v>
@@ -2825,25 +2825,25 @@
         <v>200.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.3265963547810077E-5</v>
+        <v>7.183492785817081E-6</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.9949694179951267</v>
+        <v>1.8192696071264075E-5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.9949591875287354</v>
+        <v>7.590020345560333E-8</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9899437848478412</v>
+        <v>5.76084088460198E-15</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW16" t="n">
-        <v>22.0</v>
+        <v>66.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.22000000000002728</v>
       </c>
       <c r="AY16" t="s">
         <v>102</v>
@@ -2860,22 +2860,22 @@
         <v>20.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.102217984441758E-5</v>
+        <v>0.9948925052318774</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9949116498218441</v>
+        <v>-1.989828154272241</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9949598287525347</v>
+        <v>4.974792514563461</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9899450608312733</v>
+        <v>24.748560562956644</v>
       </c>
       <c r="H17" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I17" t="n">
-        <v>80.0</v>
+        <v>67.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.01999999999998181</v>
@@ -2890,25 +2890,25 @@
         <v>40.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9949865295380252</v>
+        <v>-0.9949531056646828</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.9898090406105722</v>
+        <v>-5.598112181480037E-5</v>
       </c>
       <c r="P17" t="n">
-        <v>4.974792510302187</v>
+        <v>0.9949596848998112</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.748560520558737</v>
+        <v>0.9899447745759317</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S17" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U17" t="s">
         <v>102</v>
@@ -2920,25 +2920,25 @@
         <v>70.0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.5670854518717576E-5</v>
+        <v>-3.652021800926611E-5</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.9950177771967698</v>
+        <v>-2.0619040480189954E-5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9949597993434374</v>
+        <v>3.4894611999902736E-7</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9899450023095332</v>
+        <v>1.217633946623756E-13</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC17" t="n">
-        <v>25.0</v>
+        <v>57.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE17" t="s">
         <v>102</v>
@@ -2950,25 +2950,25 @@
         <v>100.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>-1.0545276544581048E-5</v>
+        <v>-1.9815682712856103E-5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.0934941211831171E-5</v>
+        <v>0.9949814256240227</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4.578409473765532E-8</v>
+        <v>0.9949592379662704</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.096183330946598E-15</v>
+        <v>0.9899438852144214</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM17" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="AO17" t="s">
         <v>102</v>
@@ -2980,25 +2980,25 @@
         <v>200.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-1.0562886069105276E-5</v>
+        <v>-0.9949627342061521</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.383633944666605E-6</v>
+        <v>-1.2333541046180694E-5</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.594785897258589E-8</v>
+        <v>0.9949590905996537</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.732913852612061E-16</v>
+        <v>0.9899435919668899</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW17" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="AY17" t="s">
         <v>102</v>
@@ -3015,25 +3015,25 @@
         <v>20.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.3942437152823076E-5</v>
+        <v>-2.9848636883289172</v>
       </c>
       <c r="E18" t="n">
-        <v>3.4094264164913715E-5</v>
+        <v>-0.9949426459454601</v>
       </c>
       <c r="F18" t="n">
-        <v>6.136974803894191E-7</v>
+        <v>9.949560361890498</v>
       </c>
       <c r="G18" t="n">
-        <v>3.766245974363214E-13</v>
+        <v>98.99375139490257</v>
       </c>
       <c r="H18" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I18" t="n">
-        <v>73.0</v>
+        <v>68.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K18" t="s">
         <v>102</v>
@@ -3045,25 +3045,25 @@
         <v>40.0</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.9898934817773537</v>
+        <v>4.390099854799479E-5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4823076697047615E-5</v>
+        <v>-3.6516720135969114E-5</v>
       </c>
       <c r="P18" t="n">
-        <v>3.979831303767547</v>
+        <v>6.469106708095751E-7</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.839057206448093</v>
+        <v>4.1849341600729443E-13</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S18" t="n">
-        <v>63.0</v>
+        <v>44.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U18" t="s">
         <v>102</v>
@@ -3075,25 +3075,25 @@
         <v>70.0</v>
       </c>
       <c r="X18" t="n">
-        <v>-2.173574917453819E-5</v>
+        <v>0.9949647102693295</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.9899316753361806</v>
+        <v>0.9949922260268628</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.979831359120997</v>
+        <v>1.989918345209528</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.83905764704288</v>
+        <v>3.959775020601426</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC18" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE18" t="s">
         <v>102</v>
@@ -3105,25 +3105,25 @@
         <v>100.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.7054607850208077E-5</v>
+        <v>0.9949505173557348</v>
       </c>
       <c r="AI18" t="n">
-        <v>-2.782813540444971E-5</v>
+        <v>0.9949317420475478</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.9884929375612046E-7</v>
+        <v>1.9899182707015726</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.931090037853198E-14</v>
+        <v>3.959774724071937</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM18" t="n">
-        <v>54.0</v>
+        <v>77.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AO18" t="s">
         <v>102</v>
@@ -3135,25 +3135,25 @@
         <v>200.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.5406549841855604E-5</v>
+        <v>-0.9949558122098723</v>
       </c>
       <c r="AS18" t="n">
-        <v>-1.9898827981546248</v>
+        <v>0.994962080644533</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.9798314091978675</v>
+        <v>1.9899181181201868</v>
       </c>
       <c r="AU18" t="n">
-        <v>15.839058045637884</v>
+        <v>3.959774116822986</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW18" t="n">
-        <v>31.0</v>
+        <v>51.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.20999999999997954</v>
       </c>
       <c r="AY18" t="s">
         <v>102</v>
@@ -3170,25 +3170,25 @@
         <v>20.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9949635371757698</v>
+        <v>0.9948864991269052</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9947882646902114</v>
+        <v>0.9949426717179679</v>
       </c>
       <c r="F19" t="n">
-        <v>1.989923874723626</v>
+        <v>1.9899191966392493</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9597970271950893</v>
+        <v>3.9597784091533956</v>
       </c>
       <c r="H19" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I19" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="K19" t="s">
         <v>102</v>
@@ -3200,25 +3200,25 @@
         <v>40.0</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.9949737229516314</v>
+        <v>-6.329619118514368E-5</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.9949796796860131</v>
+        <v>-0.9950303074648291</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9899182471092267</v>
+        <v>0.9949608704823447</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.9597746301782575</v>
+        <v>0.9899471337909851</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S19" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U19" t="s">
         <v>102</v>
@@ -3230,25 +3230,25 @@
         <v>70.0</v>
       </c>
       <c r="X19" t="n">
-        <v>-2.181103935648702E-5</v>
+        <v>-1.942935114793661E-5</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.1791335802276144E-5</v>
+        <v>-1.9899402727292848</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.9489207875599277E-7</v>
+        <v>3.9798314211092105</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.696133811303064E-14</v>
+        <v>15.839058140448158</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE19" t="s">
         <v>102</v>
@@ -3260,25 +3260,25 @@
         <v>100.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>-2.1394462717147522E-5</v>
+        <v>-1.1330306754614712E-5</v>
       </c>
       <c r="AI19" t="n">
-        <v>-3.5465864702649944E-5</v>
+        <v>1.0434913208252235E-5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.403516650735128E-7</v>
+        <v>4.7071157638356453E-8</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.158392559183126E-13</v>
+        <v>2.215693881415003E-15</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM19" t="n">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO19" t="s">
         <v>102</v>
@@ -3290,25 +3290,25 @@
         <v>200.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.4532620862009575E-6</v>
+        <v>-5.6334467748288215E-6</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.888466357005396E-5</v>
+        <v>-3.532408627666645E-5</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.0116624216702803E-7</v>
+        <v>2.538479897395973E-7</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.070110542100897E-14</v>
+        <v>6.443880189483471E-14</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW19" t="n">
-        <v>56.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.21000000000000796</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY19" t="s">
         <v>102</v>
@@ -3325,25 +3325,25 @@
         <v>20.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9949815514694441</v>
+        <v>-1.388631505937761E-4</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.995068651760062</v>
+        <v>0.9950379304537055</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9899206182780844</v>
+        <v>0.9949641294267444</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9597840670482336</v>
+        <v>0.9899536188459194</v>
       </c>
       <c r="H20" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I20" t="n">
-        <v>58.0</v>
+        <v>73.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K20" t="s">
         <v>102</v>
@@ -3355,25 +3355,25 @@
         <v>40.0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.472983164351861E-5</v>
+        <v>9.829332257995267E-5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9949830295393702</v>
+        <v>-8.20974873771304E-5</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9949602830008111</v>
+        <v>3.2539425625088825E-6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.989945964749054</v>
+        <v>1.0588142200106872E-11</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S20" t="n">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U20" t="s">
         <v>102</v>
@@ -3385,25 +3385,25 @@
         <v>70.0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.2705116792775532E-5</v>
+        <v>0.9949633625888465</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.5230659911125823E-5</v>
+        <v>0.9949793933401296</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.5831811595035106E-7</v>
+        <v>1.9899182040379735</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.5064625838068802E-14</v>
+        <v>3.959774458761714</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC20" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AE20" t="s">
         <v>102</v>
@@ -3415,25 +3415,25 @@
         <v>100.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.9949230315229053</v>
+        <v>4.737684218492558E-5</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.9949545656843964</v>
+        <v>0.9949874434065001</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.9899183688691195</v>
+        <v>0.9949596669355074</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.959775114762737</v>
+        <v>0.9899447388284158</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM20" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.049999999999954525</v>
       </c>
       <c r="AO20" t="s">
         <v>102</v>
@@ -3445,25 +3445,25 @@
         <v>200.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.9949800163664909</v>
+        <v>4.826026867179479E-6</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.9949628787430218</v>
+        <v>-0.9949825984803056</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.9899182083831128</v>
+        <v>0.9949591755584031</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.959774476054658</v>
+        <v>0.9899437610278572</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW20" t="n">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.049999999999954525</v>
       </c>
       <c r="AY20" t="s">
         <v>102</v>
@@ -3480,25 +3480,25 @@
         <v>20.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9949755186631616</v>
+        <v>-0.9949168340855694</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9900863208348658</v>
+        <v>-0.9948811208376914</v>
       </c>
       <c r="F21" t="n">
-        <v>4.974796304815282</v>
+        <v>1.9899196522188198</v>
       </c>
       <c r="G21" t="n">
-        <v>24.748598274403783</v>
+        <v>3.959780222286669</v>
       </c>
       <c r="H21" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I21" t="n">
-        <v>50.0</v>
+        <v>66.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K21" t="s">
         <v>102</v>
@@ -3510,25 +3510,25 @@
         <v>40.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.9949866437507869</v>
+        <v>-1.4096392914686798E-5</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.9949108188565496</v>
+        <v>-0.9949931780434943</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9899187231392403</v>
+        <v>0.994959333087273</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.9597765247001044</v>
+        <v>0.9899440744974711</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S21" t="n">
-        <v>68.0</v>
+        <v>28.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -3540,25 +3540,25 @@
         <v>70.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9949344975229193</v>
+        <v>6.732302852885249E-6</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.9949731237524438</v>
+        <v>2.025098465963141E-5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.9899182713521242</v>
+        <v>9.03529731033359E-8</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.959774726661026</v>
+        <v>8.16365974861214E-15</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC21" t="n">
-        <v>55.0</v>
+        <v>43.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE21" t="s">
         <v>102</v>
@@ -3570,25 +3570,25 @@
         <v>100.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.9949283356032412</v>
+        <v>-0.9949795278961876</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.9949622760536483</v>
+        <v>-9.060559265453919E-6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.9899182988867246</v>
+        <v>0.9949591599157017</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.9597748362442355</v>
+        <v>0.9899437299001589</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM21" t="n">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AO21" t="s">
         <v>102</v>
@@ -3600,25 +3600,25 @@
         <v>200.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.9949386885421383</v>
+        <v>0.9949924272130769</v>
       </c>
       <c r="AS21" t="n">
-        <v>-1.3636470269695692E-5</v>
+        <v>8.728339960534348E-6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9949591728989517</v>
+        <v>0.9949592986061049</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.9899437557357662</v>
+        <v>0.9899440058827522</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW21" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.10999999999998522</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AY21" t="s">
         <v>102</v>
@@ -3635,25 +3635,25 @@
         <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9949284938877933</v>
+        <v>0.9950325030591359</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9950545802449023</v>
+        <v>1.1398349927203751E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9899201196599883</v>
+        <v>0.9949601647806041</v>
       </c>
       <c r="G22" t="n">
-        <v>3.959782082627622</v>
+        <v>0.989945729500247</v>
       </c>
       <c r="H22" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I22" t="n">
-        <v>53.0</v>
+        <v>74.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="K22" t="s">
         <v>102</v>
@@ -3665,25 +3665,25 @@
         <v>40.0</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.9949720942856182</v>
+        <v>-0.9949574089478067</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.9949898595696864</v>
+        <v>1.989939647226888</v>
       </c>
       <c r="P22" t="n">
-        <v>1.9899183433918104</v>
+        <v>4.974790396741259</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.959775013367207</v>
+        <v>24.748539491509053</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S22" t="n">
-        <v>49.0</v>
+        <v>32.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -3695,25 +3695,25 @@
         <v>70.0</v>
       </c>
       <c r="X22" t="n">
-        <v>3.454839936986035E-5</v>
+        <v>-0.9949674175509208</v>
       </c>
       <c r="Y22" t="n">
-        <v>-2.0719487665451738E-5</v>
+        <v>-0.9948963374983096</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.219683470945256E-7</v>
+        <v>1.98991889910587</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.0366361653078091E-13</v>
+        <v>3.9597772250187178</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC22" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE22" t="s">
         <v>102</v>
@@ -3725,25 +3725,25 @@
         <v>100.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.782854196212839E-6</v>
+        <v>2.789611856857768E-5</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.9949832113966215</v>
+        <v>-7.263482905299126E-6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.994959192140179</v>
+        <v>1.6485422804635164E-7</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.9899437940242377</v>
+        <v>2.717691650475851E-14</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM22" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO22" t="s">
         <v>102</v>
@@ -3755,25 +3755,25 @@
         <v>200.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.9949538659908597</v>
+        <v>-3.315104356444628E-5</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.9949309742352058</v>
+        <v>-4.2295251566506654E-5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.9899182704478626</v>
+        <v>5.729325422976217E-7</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.959774723062213</v>
+        <v>3.2825169802361607E-13</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW22" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AY22" t="s">
         <v>102</v>
@@ -3790,25 +3790,25 @@
         <v>20.0</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.9798293520567563</v>
+        <v>1.2619677419600011E-5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.9898565601417035</v>
+        <v>0.9949668164053527</v>
       </c>
       <c r="F23" t="n">
-        <v>19.899076003994185</v>
+        <v>0.994959101952702</v>
       </c>
       <c r="G23" t="n">
-        <v>395.9732258127372</v>
+        <v>0.9899436145585272</v>
       </c>
       <c r="H23" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I23" t="n">
-        <v>38.0</v>
+        <v>68.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K23" t="s">
         <v>102</v>
@@ -3820,25 +3820,25 @@
         <v>40.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.989939844806598</v>
+        <v>1.9898860023164913</v>
       </c>
       <c r="O23" t="n">
-        <v>6.163392958473445E-5</v>
+        <v>-0.994994444374318</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9798320951413793</v>
+        <v>4.974790638121345</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.839063505517421</v>
+        <v>24.748541893139777</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S23" t="n">
-        <v>34.0</v>
+        <v>67.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U23" t="s">
         <v>102</v>
@@ -3850,25 +3850,25 @@
         <v>70.0</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.994970811877414</v>
+        <v>-1.9898678149381983</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9949754384476979</v>
+        <v>0.9949411484284582</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.9899181995475708</v>
+        <v>4.974790698948421</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.9597744408906457</v>
+        <v>24.748542498343724</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC23" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE23" t="s">
         <v>102</v>
@@ -3880,25 +3880,25 @@
         <v>100.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.9949707542705634</v>
+        <v>-3.47985827893504E-5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1.9899403293806586</v>
+        <v>-0.994937170409268</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.974790433051112</v>
+        <v>0.9949593887162251</v>
       </c>
       <c r="AK23" t="n">
-        <v>24.74853985277687</v>
+        <v>0.9899441851945644</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM23" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO23" t="s">
         <v>102</v>
@@ -3910,25 +3910,25 @@
         <v>200.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.9949683228794132</v>
+        <v>-0.9949872403898076</v>
       </c>
       <c r="AS23" t="n">
-        <v>-1.1542447128972725E-5</v>
+        <v>3.872493647781325E-5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9949591021253106</v>
+        <v>0.9949595168333296</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.9899436149020042</v>
+        <v>0.9899444401372127</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW23" t="n">
         <v>22.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.160000000000025</v>
       </c>
       <c r="AY23" t="s">
         <v>102</v>
@@ -3945,22 +3945,22 @@
         <v>20.0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.994987066002205</v>
+        <v>-0.9949849946569453</v>
       </c>
       <c r="E24" t="n">
-        <v>6.127029347631752E-5</v>
+        <v>-0.9949190963308181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9949599621219001</v>
+        <v>1.9899185619729636</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9899453262256128</v>
+        <v>3.9597758832845473</v>
       </c>
       <c r="H24" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I24" t="n">
-        <v>61.0</v>
+        <v>70.0</v>
       </c>
       <c r="J24" t="n">
         <v>0.01999999999998181</v>
@@ -3975,25 +3975,25 @@
         <v>40.0</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.9948693287921334</v>
+        <v>1.6333749350063304E-5</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9949619747920202</v>
+        <v>-6.252199928727659E-5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9899196979854032</v>
+        <v>8.284440369266122E-7</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.9597804044303184</v>
+        <v>6.863195223192619E-13</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S24" t="n">
-        <v>30.0</v>
+        <v>54.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U24" t="s">
         <v>102</v>
@@ -4005,25 +4005,25 @@
         <v>70.0</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.9949689504537523</v>
+        <v>-2.7538519522092765E-5</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.9949767910757439</v>
+        <v>0.9949811743898772</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.9899182006227534</v>
+        <v>0.9949593082620076</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.9597744451696966</v>
+        <v>0.9899440250972127</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC24" t="n">
-        <v>58.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AE24" t="s">
         <v>102</v>
@@ -4035,25 +4035,25 @@
         <v>100.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.2641836021378947E-5</v>
+        <v>-1.608393724501872E-5</v>
       </c>
       <c r="AI24" t="n">
-        <v>5.729092511201328E-6</v>
+        <v>-0.9949810423219447</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3.821795857561483E-8</v>
+        <v>0.9949592079531087</v>
       </c>
       <c r="AK24" t="n">
-        <v>1.4606123576874111E-15</v>
+        <v>0.9899438254906773</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM24" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO24" t="s">
         <v>102</v>
@@ -4065,25 +4065,25 @@
         <v>200.0</v>
       </c>
       <c r="AR24" t="n">
-        <v>-1.0591324787882258E-5</v>
+        <v>9.257502741445113E-6</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6920221714431218E-6</v>
+        <v>0.9949865256375722</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.369260698742437E-8</v>
+        <v>0.9949592283164428</v>
       </c>
       <c r="AU24" t="n">
-        <v>5.613396258605501E-16</v>
+        <v>0.9899438660120513</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW24" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.08999999999997499</v>
       </c>
       <c r="AY24" t="s">
         <v>102</v>
@@ -4100,22 +4100,22 @@
         <v>20.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9949352323669078</v>
+        <v>0.9949988105796458</v>
       </c>
       <c r="E25" t="n">
-        <v>1.9899745399776545</v>
+        <v>2.0633626809090733E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>4.9747911249133985</v>
+        <v>0.9949594615769506</v>
       </c>
       <c r="G25" t="n">
-        <v>24.748546736517117</v>
+        <v>0.9899443301814954</v>
       </c>
       <c r="H25" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I25" t="n">
-        <v>33.0</v>
+        <v>55.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.01999999999998181</v>
@@ -4130,25 +4130,25 @@
         <v>40.0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.99493043555484</v>
+        <v>-0.9949977401218256</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9950062968728779</v>
+        <v>0.9949817642801817</v>
       </c>
       <c r="P25" t="n">
-        <v>1.9899187223048784</v>
+        <v>1.989918523433495</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.9597765213794798</v>
+        <v>3.959775729903741</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S25" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.010000000000047748</v>
       </c>
       <c r="U25" t="s">
         <v>102</v>
@@ -4160,25 +4160,25 @@
         <v>70.0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.4780219941360864E-5</v>
+        <v>1.9899429105133148</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.9949717257169752</v>
+        <v>2.5580068238650945E-5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.9949591344001405</v>
+        <v>3.9798315066978027</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9899436791262769</v>
+        <v>15.839058821704503</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC25" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AE25" t="s">
         <v>102</v>
@@ -4190,25 +4190,25 @@
         <v>100.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.9949895954281779</v>
+        <v>-0.9949341582476257</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.994987831329069</v>
+        <v>-1.549526528447938E-5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.989918473227565</v>
+        <v>0.9949592235530673</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.9597755300923234</v>
+        <v>0.9899438565333226</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM25" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO25" t="s">
         <v>102</v>
@@ -4220,25 +4220,25 @@
         <v>200.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>-2.539665520971332E-5</v>
+        <v>-9.537754773694896E-6</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.9949358678658258</v>
+        <v>0.9949422266413379</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9949592878617217</v>
+        <v>0.9949591285452577</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9899439845023045</v>
+        <v>0.9899436674755386</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW25" t="n">
-        <v>46.0</v>
+        <v>31.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY25" t="s">
         <v>102</v>
@@ -4255,25 +4255,25 @@
         <v>20.0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.9949204542036764</v>
+        <v>2.9848440915823735</v>
       </c>
       <c r="E26" t="n">
-        <v>4.66256322655235E-5</v>
+        <v>3.849108044285503E-6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9949597774934418</v>
+        <v>8.954601271045085</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9899449588297992</v>
+        <v>80.18488392340225</v>
       </c>
       <c r="H26" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I26" t="n">
-        <v>53.0</v>
+        <v>90.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K26" t="s">
         <v>102</v>
@@ -4285,25 +4285,25 @@
         <v>40.0</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.807778709936772E-6</v>
+        <v>-0.9949562061190013</v>
       </c>
       <c r="O26" t="n">
-        <v>7.400640299094104E-5</v>
+        <v>-2.4575966314545065E-5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0881471155244071E-6</v>
+        <v>0.9949591780901486</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.1840641450240874E-12</v>
+        <v>0.9899437660658239</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S26" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U26" t="s">
         <v>102</v>
@@ -4315,25 +4315,25 @@
         <v>70.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9949977543939673</v>
+        <v>-5.325917785921894E-6</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.1100931427528444E-5</v>
+        <v>0.9949313695430984</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.9949598785684444</v>
+        <v>0.9949592101612623</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9899451599609336</v>
+        <v>0.989943829884723</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC26" t="n">
-        <v>45.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE26" t="s">
         <v>102</v>
@@ -4345,25 +4345,25 @@
         <v>100.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.229508632717625E-7</v>
+        <v>-2.7847781457249787E-6</v>
       </c>
       <c r="AI26" t="n">
-        <v>-6.17339904392622E-5</v>
+        <v>2.0779181993372282E-5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.562582133857632E-7</v>
+        <v>8.719915456367744E-8</v>
       </c>
       <c r="AK26" t="n">
-        <v>5.719264853134265E-13</v>
+        <v>7.603692556620108E-15</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM26" t="n">
         <v>34.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO26" t="s">
         <v>102</v>
@@ -4375,25 +4375,25 @@
         <v>200.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>-1.568718950805221E-5</v>
+        <v>-5.6220661007243245E-5</v>
       </c>
       <c r="AS26" t="n">
-        <v>-1.67314274628166E-5</v>
+        <v>-1.0558316662867304E-6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.0435990915880211E-7</v>
+        <v>6.272914774285709E-7</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.0890990639633429E-14</v>
+        <v>3.9349459765451933E-13</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW26" t="n">
-        <v>48.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY26" t="s">
         <v>102</v>
@@ -4410,25 +4410,25 @@
         <v>20.0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.9849245888845037</v>
+        <v>0.9949239370724743</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9948084827170574</v>
+        <v>-2.2059243185660276E-5</v>
       </c>
       <c r="F27" t="n">
-        <v>9.949565706603142</v>
+        <v>0.9949593924030431</v>
       </c>
       <c r="G27" t="n">
-        <v>98.99385775001328</v>
+        <v>0.9899441925310327</v>
       </c>
       <c r="H27" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I27" t="n">
-        <v>28.0</v>
+        <v>87.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="K27" t="s">
         <v>102</v>
@@ -4440,25 +4440,25 @@
         <v>40.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9949214796359863</v>
+        <v>6.270503677335939E-5</v>
       </c>
       <c r="O27" t="n">
-        <v>2.3305525975237724E-5</v>
+        <v>4.811474387290244E-5</v>
       </c>
       <c r="P27" t="n">
-        <v>0.994959438635636</v>
+        <v>1.2393454866810316E-6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9899442845301398</v>
+        <v>1.535977235356643E-12</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S27" t="n">
-        <v>34.0</v>
+        <v>48.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U27" t="s">
         <v>102</v>
@@ -4470,25 +4470,25 @@
         <v>70.0</v>
       </c>
       <c r="X27" t="n">
-        <v>-2.3659980916349434E-8</v>
+        <v>5.5394310287576644E-5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.9949108445929578</v>
+        <v>0.9949390641872218</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.994959510028341</v>
+        <v>0.9949597418353306</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.9899444265958365</v>
+        <v>0.9899448878730278</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC27" t="n">
-        <v>33.0</v>
+        <v>54.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE27" t="s">
         <v>102</v>
@@ -4500,25 +4500,25 @@
         <v>100.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>-2.0230008371617386E-5</v>
+        <v>-1.9898966674838798</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.0912594360512284E-6</v>
+        <v>-4.0198329111013924E-5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.142885832285174E-8</v>
+        <v>3.9798315591127036</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.630658967763061E-15</v>
+        <v>15.839059238909453</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM27" t="n">
-        <v>66.0</v>
+        <v>27.0</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.0700000000000216</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO27" t="s">
         <v>102</v>
@@ -4530,25 +4530,25 @@
         <v>200.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.9949522801294416</v>
+        <v>-1.1326778886974841E-5</v>
       </c>
       <c r="AS27" t="n">
-        <v>-1.2041642254818615E-5</v>
+        <v>3.570400804090373E-5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9949590938749928</v>
+        <v>2.783584065468858E-7</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.9899435984845467</v>
+        <v>7.748340249532136E-14</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW27" t="n">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AY27" t="s">
         <v>102</v>
@@ -4565,25 +4565,25 @@
         <v>20.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9949635742332859</v>
+        <v>0.9950378873254518</v>
       </c>
       <c r="E28" t="n">
-        <v>6.803195674483887E-6</v>
+        <v>-1.8199287907837517E-5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9949590711079352</v>
+        <v>0.9949603681917729</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9899435531799653</v>
+        <v>0.9899461342723084</v>
       </c>
       <c r="H28" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I28" t="n">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="s">
         <v>102</v>
@@ -4595,25 +4595,25 @@
         <v>40.0</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.9950531287340912</v>
+        <v>0.9949439062448007</v>
       </c>
       <c r="O28" t="n">
-        <v>2.1238204183515136E-5</v>
+        <v>-0.9949846877911873</v>
       </c>
       <c r="P28" t="n">
-        <v>0.994960917063743</v>
+        <v>1.9899182917828249</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9899472264843245</v>
+        <v>3.9597748079718755</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S28" t="n">
-        <v>27.0</v>
+        <v>49.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="U28" t="s">
         <v>102</v>
@@ -4625,25 +4625,25 @@
         <v>70.0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.2842349500497923E-6</v>
+        <v>-0.9949266475714379</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.2621923143889956E-5</v>
+        <v>0.9949447694484644</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.0185462784306765E-7</v>
+        <v>1.9899183552494861</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.0374365213049811E-14</v>
+        <v>3.9597750605588202</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC28" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE28" t="s">
         <v>102</v>
@@ -4655,25 +4655,25 @@
         <v>100.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.994945887908057</v>
+        <v>-0.9949363329393053</v>
       </c>
       <c r="AI28" t="n">
-        <v>5.895675926504272E-6</v>
+        <v>0.9949918599833406</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.9949590962228996</v>
+        <v>1.9899184316984382</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.9899436031566892</v>
+        <v>3.9597753648131717</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM28" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO28" t="s">
         <v>102</v>
@@ -4685,25 +4685,25 @@
         <v>200.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>-2.3858387692944816E-5</v>
+        <v>-1.3942296893256275E-5</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.994953393865907</v>
+        <v>0.9949611264972135</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.9949591754750848</v>
+        <v>0.9949590968865571</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.9899437608620607</v>
+        <v>0.9899436044773134</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW28" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="AY28" t="s">
         <v>102</v>
@@ -4720,25 +4720,25 @@
         <v>20.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9949820694489208</v>
+        <v>-0.9948749003875695</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.9899444117167953</v>
+        <v>-1.989817545037234</v>
       </c>
       <c r="F29" t="n">
-        <v>4.974790561530604</v>
+        <v>4.974793413252982</v>
       </c>
       <c r="G29" t="n">
-        <v>24.74854113109398</v>
+        <v>24.748569504545255</v>
       </c>
       <c r="H29" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I29" t="n">
-        <v>91.0</v>
+        <v>41.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K29" t="s">
         <v>102</v>
@@ -4750,25 +4750,25 @@
         <v>40.0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.9949469482847155</v>
+        <v>0.9949408008080378</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.9949387115618297</v>
+        <v>-0.9949306847063999</v>
       </c>
       <c r="P29" t="n">
-        <v>1.989918220013564</v>
+        <v>1.9899183322134597</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.9597745223419514</v>
+        <v>3.9597749688791968</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S29" t="n">
-        <v>43.0</v>
+        <v>68.0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U29" t="s">
         <v>102</v>
@@ -4780,25 +4780,25 @@
         <v>70.0</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.9948988754066591</v>
+        <v>0.994955965053442</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.9949415679256314</v>
+        <v>5.715454726918738E-5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.9899188801703254</v>
+        <v>0.9949597065856324</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.9597771496583216</v>
+        <v>0.9899448177289677</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC29" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AE29" t="s">
         <v>102</v>
@@ -4810,25 +4810,25 @@
         <v>100.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.9899050492200239</v>
+        <v>0.9949987212776222</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.9949546433259107</v>
+        <v>0.9949702324412566</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4.974790261030982</v>
+        <v>1.9899184594426735</v>
       </c>
       <c r="AK29" t="n">
-        <v>24.74853814124871</v>
+        <v>3.9597754752307033</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM29" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO29" t="s">
         <v>102</v>
@@ -4840,25 +4840,25 @@
         <v>200.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>5.706204611847528E-6</v>
+        <v>0.9949573794922375</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.9949792146007927</v>
+        <v>7.719589976890023E-6</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.9949591475126347</v>
+        <v>0.994959069229779</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.9899437052190688</v>
+        <v>0.9899435494425881</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW29" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="AY29" t="s">
         <v>102</v>
@@ -4875,25 +4875,25 @@
         <v>20.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.431504904717963E-5</v>
+        <v>-0.9950696235211509</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.4406302428333876E-5</v>
+        <v>-1.989932711434967</v>
       </c>
       <c r="F30" t="n">
-        <v>1.2118473513567096E-6</v>
+        <v>4.974792773239262</v>
       </c>
       <c r="G30" t="n">
-        <v>1.4685740029902724E-12</v>
+        <v>24.748563136673585</v>
       </c>
       <c r="H30" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I30" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K30" t="s">
         <v>102</v>
@@ -4905,25 +4905,25 @@
         <v>40.0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.602724841408008E-5</v>
+        <v>-0.9949845722257018</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.9949758579458793</v>
+        <v>-0.9949417688928426</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9949591668563968</v>
+        <v>1.9899183039843713</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9899437437115753</v>
+        <v>3.9597748565320368</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S30" t="n">
-        <v>30.0</v>
+        <v>63.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U30" t="s">
         <v>102</v>
@@ -4935,25 +4935,25 @@
         <v>70.0</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.9949779066852198</v>
+        <v>2.955113315320575E-5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.5760398024797564E-5</v>
+        <v>-4.906040306929839E-5</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.9949591799973767</v>
+        <v>6.507642602571195E-7</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.9899437698610523</v>
+        <v>4.23494122427996E-13</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC30" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE30" t="s">
         <v>102</v>
@@ -4965,25 +4965,25 @@
         <v>100.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.9949538898022493</v>
+        <v>-1.0759193326411574E-5</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.9949874573383576</v>
+        <v>4.5680327773971847E-7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.989918283353962</v>
+        <v>2.3007316940493183E-8</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.9597747744263785</v>
+        <v>5.293366328003046E-16</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM30" t="n">
-        <v>22.0</v>
+        <v>47.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="AO30" t="s">
         <v>102</v>
@@ -4995,25 +4995,25 @@
         <v>200.0</v>
       </c>
       <c r="AR30" t="n">
-        <v>-0.9949275237953119</v>
+        <v>-0.9949433563928398</v>
       </c>
       <c r="AS30" t="n">
-        <v>-3.7332695037303537E-6</v>
+        <v>1.9684333700841275E-5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9949592518199353</v>
+        <v>0.9949591802696034</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.9899439127820854</v>
+        <v>0.9899437704027612</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW30" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.08000000000004093</v>
       </c>
       <c r="AY30" t="s">
         <v>102</v>
@@ -5030,22 +5030,22 @@
         <v>20.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.35996016447313E-5</v>
+        <v>-0.9950644859639098</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.9848775801528125</v>
+        <v>0.9949272277943941</v>
       </c>
       <c r="F31" t="n">
-        <v>8.954601560000807</v>
+        <v>1.9899205314822197</v>
       </c>
       <c r="G31" t="n">
-        <v>80.18488909836888</v>
+        <v>3.9597837216144796</v>
       </c>
       <c r="H31" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I31" t="n">
-        <v>60.0</v>
+        <v>36.0</v>
       </c>
       <c r="J31" t="n">
         <v>0.01999999999998181</v>
@@ -5060,25 +5060,25 @@
         <v>40.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9949240159817917</v>
+        <v>-1.146645144059369E-7</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9950120914603193</v>
+        <v>-0.9948717110987041</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9899189184587023</v>
+        <v>0.9949605554344529</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.9597773020398512</v>
+        <v>0.9899465068704351</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S31" t="n">
-        <v>55.0</v>
+        <v>22.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.010000000000047748</v>
       </c>
       <c r="U31" t="s">
         <v>102</v>
@@ -5090,25 +5090,25 @@
         <v>70.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9949754409728102</v>
+        <v>0.9949669832643284</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.8458484758297405E-6</v>
+        <v>-4.884712097382248E-5</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.9949591146884629</v>
+        <v>0.9949595442759573</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9899436399016498</v>
+        <v>0.9899444947458207</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC31" t="n">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE31" t="s">
         <v>102</v>
@@ -5120,25 +5120,25 @@
         <v>100.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.9949232903766597</v>
+        <v>4.6326101934955055E-5</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.9949745928313066</v>
+        <v>-3.394420494242807E-6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.989918412418362</v>
+        <v>4.280566798797736E-7</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.959775288081614</v>
+        <v>1.8323252118969496E-13</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM31" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.1400000000000432</v>
       </c>
       <c r="AO31" t="s">
         <v>102</v>
@@ -5150,25 +5150,25 @@
         <v>200.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>-1.3193367420414644E-5</v>
+        <v>0.9949564990976578</v>
       </c>
       <c r="AS31" t="n">
-        <v>-9.887411341783696E-6</v>
+        <v>-0.9949577522881315</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.392809754312111E-8</v>
+        <v>1.9899181152488978</v>
       </c>
       <c r="AU31" t="n">
-        <v>2.9082397046203853E-15</v>
+        <v>3.959774105395726</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW31" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="AY31" t="s">
         <v>102</v>
@@ -5185,25 +5185,25 @@
         <v>20.0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9949465735499202</v>
+        <v>-0.9949796707414603</v>
       </c>
       <c r="E32" t="n">
-        <v>2.9849022339816345</v>
+        <v>0.9949574513866988</v>
       </c>
       <c r="F32" t="n">
-        <v>9.94956075509209</v>
+        <v>1.989918202188786</v>
       </c>
       <c r="G32" t="n">
-        <v>98.99375921926868</v>
+        <v>3.95977445140225</v>
       </c>
       <c r="H32" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I32" t="n">
-        <v>46.0</v>
+        <v>77.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K32" t="s">
         <v>102</v>
@@ -5215,25 +5215,25 @@
         <v>40.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.8751878253521758E-5</v>
+        <v>0.9949450973064863</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.9898956797637395</v>
+        <v>0.9949068593607987</v>
       </c>
       <c r="P32" t="n">
-        <v>3.979831314572543</v>
+        <v>1.9899186821619956</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.839057292452216</v>
+        <v>3.9597763616173336</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S32" t="n">
-        <v>36.0</v>
+        <v>67.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="U32" t="s">
         <v>102</v>
@@ -5245,25 +5245,25 @@
         <v>70.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9949770353825034</v>
+        <v>-1.9899040093910312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.0899345284412456E-5</v>
+        <v>0.9949630672860083</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.994959147779042</v>
+        <v>4.974790264930512</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.9899437057491977</v>
+        <v>24.74853818004739</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC32" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="AE32" t="s">
         <v>102</v>
@@ -5275,25 +5275,25 @@
         <v>100.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>5.056337045931805E-5</v>
+        <v>1.9898909511434748</v>
       </c>
       <c r="AI32" t="n">
-        <v>4.336995070504196E-5</v>
+        <v>-1.737304433338785E-5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.80386121338006E-7</v>
+        <v>3.979831340114746</v>
       </c>
       <c r="AK32" t="n">
-        <v>7.750797226445782E-13</v>
+        <v>15.839057495759535</v>
       </c>
       <c r="AL32" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM32" t="n">
-        <v>56.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.10999999999998522</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="AO32" t="s">
         <v>102</v>
@@ -5305,25 +5305,25 @@
         <v>200.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>-1.207652431070633E-5</v>
+        <v>-1.2810782934474391E-5</v>
       </c>
       <c r="AS32" t="n">
-        <v>-0.9949783997599557</v>
+        <v>2.7685186978053774E-5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.9949591634689305</v>
+        <v>1.8462084838688497E-7</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.9899437369707941</v>
+        <v>3.408485765909317E-14</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW32" t="n">
-        <v>42.0</v>
+        <v>27.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.1699999999999875</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="AY32" t="s">
         <v>102</v>
@@ -5340,25 +5340,25 @@
         <v>20.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.1580939842845395E-5</v>
+        <v>-2.984911906696174</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.573032874010146E-5</v>
+        <v>1.9899318131779493</v>
       </c>
       <c r="F33" t="n">
-        <v>3.456770549803423E-7</v>
+        <v>12.934433131865767</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1949262633988257E-13</v>
+        <v>167.29956044270688</v>
       </c>
       <c r="H33" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I33" t="n">
-        <v>99.0</v>
+        <v>48.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K33" t="s">
         <v>102</v>
@@ -5370,25 +5370,25 @@
         <v>40.0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.250747279643894E-6</v>
+        <v>2.511037959777837E-5</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.9949247790958707</v>
+        <v>-2.718662429465565E-5</v>
       </c>
       <c r="P33" t="n">
-        <v>0.9949592880010378</v>
+        <v>2.717264742102543E-7</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.9899439847795322</v>
+        <v>7.3835276786736E-14</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S33" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U33" t="s">
         <v>102</v>
@@ -5400,25 +5400,25 @@
         <v>70.0</v>
       </c>
       <c r="X33" t="n">
-        <v>4.086538636869375E-5</v>
+        <v>-1.5327955885696183E-5</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.9949276230427065</v>
+        <v>-0.9949715346301322</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.9949595791429751</v>
+        <v>0.9949591366872816</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.9899445641283661</v>
+        <v>0.9899436836775007</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC33" t="n">
-        <v>27.0</v>
+        <v>63.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="AE33" t="s">
         <v>102</v>
@@ -5430,25 +5430,25 @@
         <v>100.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.9949509708640328</v>
+        <v>0.9949702807845856</v>
       </c>
       <c r="AI33" t="n">
-        <v>-2.8885109397792913E-5</v>
+        <v>1.7241200234595594E-5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.994959234277232</v>
+        <v>0.9949591429482503</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.9899438778735358</v>
+        <v>0.9899436961363167</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM33" t="n">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AO33" t="s">
         <v>102</v>
@@ -5460,25 +5460,25 @@
         <v>200.0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.9949654396816723</v>
+        <v>8.23288811648615E-6</v>
       </c>
       <c r="AS33" t="n">
-        <v>-2.9271271942239226E-5</v>
+        <v>1.9898998341948853</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9949592362516384</v>
+        <v>3.9798312344425746</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.9899438818024436</v>
+        <v>15.839056654644708</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW33" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="AY33" t="s">
         <v>102</v>
@@ -5495,25 +5495,25 @@
         <v>20.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.9849088079444357</v>
+        <v>1.989890869898469</v>
       </c>
       <c r="E34" t="n">
-        <v>1.9900031888763385</v>
+        <v>-1.9899149896487176</v>
       </c>
       <c r="F34" t="n">
-        <v>12.934434627069372</v>
+        <v>7.959662472979431</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2995991219312</v>
+        <v>63.356226683757036</v>
       </c>
       <c r="H34" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I34" t="n">
-        <v>34.0</v>
+        <v>56.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>0.010000000000047748</v>
       </c>
       <c r="K34" t="s">
         <v>102</v>
@@ -5525,25 +5525,25 @@
         <v>40.0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.632520019372598E-5</v>
+        <v>0.9949785245986238</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9950202133893117</v>
+        <v>2.736374807908246E-5</v>
       </c>
       <c r="P34" t="n">
-        <v>0.9949602346928792</v>
+        <v>0.99495928406742</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9899458686201092</v>
+        <v>0.9899439769519529</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S34" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="U34" t="s">
         <v>102</v>
@@ -5555,25 +5555,25 @@
         <v>70.0</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.9949489620862827</v>
+        <v>-3.117661305662295E-5</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.9949663997316675</v>
+        <v>2.2722447571705463E-5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.9899181446972278</v>
+        <v>2.9526512435040786E-7</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.9597742225952572</v>
+        <v>8.718149365766182E-14</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC34" t="n">
-        <v>47.0</v>
+        <v>57.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03999999999996362</v>
       </c>
       <c r="AE34" t="s">
         <v>102</v>
@@ -5585,25 +5585,25 @@
         <v>100.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>-3.253750415429819E-5</v>
+        <v>0.9949436506906959</v>
       </c>
       <c r="AI34" t="n">
-        <v>-1.5310590728788616E-5</v>
+        <v>0.9949714949549623</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2.565414796151799E-7</v>
+        <v>1.9899181915048523</v>
       </c>
       <c r="AK34" t="n">
-        <v>6.581353076314578E-14</v>
+        <v>3.959774408881942</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM34" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO34" t="s">
         <v>102</v>
@@ -5615,25 +5615,25 @@
         <v>200.0</v>
       </c>
       <c r="AR34" t="n">
-        <v>-1.9898794124357635</v>
+        <v>-1.658791161180659E-5</v>
       </c>
       <c r="AS34" t="n">
-        <v>6.58566338297875E-6</v>
+        <v>-2.8993982704020946E-6</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.9798314124457193</v>
+        <v>5.625711452239557E-8</v>
       </c>
       <c r="AU34" t="n">
-        <v>15.839058071489688</v>
+        <v>3.1648629343859303E-15</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW34" t="n">
-        <v>21.0</v>
+        <v>65.0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.25</v>
       </c>
       <c r="AY34" t="s">
         <v>102</v>
@@ -5650,25 +5650,25 @@
         <v>20.0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.815971959400296E-5</v>
+        <v>-1.0285087023129877E-4</v>
       </c>
       <c r="E35" t="n">
-        <v>1.9678777707325977E-4</v>
+        <v>3.9655303310658544E-5</v>
       </c>
       <c r="F35" t="n">
-        <v>8.60449729600532E-6</v>
+        <v>2.4106313567529014E-6</v>
       </c>
       <c r="G35" t="n">
-        <v>7.403737371696287E-11</v>
+        <v>5.811143538160334E-12</v>
       </c>
       <c r="H35" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I35" t="n">
-        <v>50.0</v>
+        <v>64.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K35" t="s">
         <v>102</v>
@@ -5680,25 +5680,25 @@
         <v>40.0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.9899110929103139</v>
+        <v>-2.062327974955336E-5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.9898786522042158</v>
+        <v>-1.9898925469432234</v>
       </c>
       <c r="P35" t="n">
-        <v>7.959662604648077</v>
+        <v>3.9798313516708923</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.35622877983301</v>
+        <v>15.83905758774256</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S35" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U35" t="s">
         <v>102</v>
@@ -5710,25 +5710,25 @@
         <v>70.0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.801956426323833E-5</v>
+        <v>-0.9949073173348139</v>
       </c>
       <c r="Y35" t="n">
-        <v>-3.0315911925175683E-5</v>
+        <v>1.9899150849374985</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.467519841786725E-7</v>
+        <v>4.974790771514542</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.088654169611184E-14</v>
+        <v>24.74854322034625</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC35" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE35" t="s">
         <v>102</v>
@@ -5740,25 +5740,25 @@
         <v>100.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.9950137167872981</v>
+        <v>-1.9899302948633006</v>
       </c>
       <c r="AI35" t="n">
-        <v>2.9848621075589863</v>
+        <v>0.9949364568167701</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.949560908252437</v>
+        <v>4.97479040979275</v>
       </c>
       <c r="AK35" t="n">
-        <v>98.99376226702505</v>
+        <v>24.748539621365914</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM35" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AO35" t="s">
         <v>102</v>
@@ -5770,25 +5770,25 @@
         <v>200.0</v>
       </c>
       <c r="AR35" t="n">
-        <v>-9.779432907134276E-6</v>
+        <v>-1.7570346312143624E-5</v>
       </c>
       <c r="AS35" t="n">
-        <v>-1.4824788941736314E-5</v>
+        <v>-6.961360818403066E-6</v>
       </c>
       <c r="AT35" t="n">
-        <v>6.257518592178712E-8</v>
+        <v>7.086120845656296E-8</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.9156538931462255E-15</v>
+        <v>5.02131086392447E-15</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW35" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.18000000000000682</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="AY35" t="s">
         <v>102</v>
@@ -5805,25 +5805,25 @@
         <v>20.0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9951464477163798</v>
+        <v>-1.2300566781946762E-5</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.9949217691441548</v>
+        <v>5.772647127528027E-5</v>
       </c>
       <c r="F36" t="n">
-        <v>1.9899253781251218</v>
+        <v>6.91128477114944E-7</v>
       </c>
       <c r="G36" t="n">
-        <v>3.959803010506409</v>
+        <v>4.776585718792216E-13</v>
       </c>
       <c r="H36" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I36" t="n">
-        <v>35.0</v>
+        <v>72.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K36" t="s">
         <v>102</v>
@@ -5835,25 +5835,25 @@
         <v>40.0</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.8272558088846245E-5</v>
+        <v>-7.159179281113098E-6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9898659779104513</v>
+        <v>0.9949873590219681</v>
       </c>
       <c r="P36" t="n">
-        <v>3.9798316804233167</v>
+        <v>0.9949592308372956</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.83906020450108</v>
+        <v>0.989943871028343</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S36" t="n">
-        <v>23.0</v>
+        <v>67.0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="U36" t="s">
         <v>102</v>
@@ -5865,25 +5865,25 @@
         <v>70.0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.923579827039609E-5</v>
+        <v>5.1988981322615674E-5</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.9949669970096445</v>
+        <v>-0.9949073515110086</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.9949591443580239</v>
+        <v>0.9949601148803708</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.989943698941651</v>
+        <v>0.9899456302027607</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC36" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE36" t="s">
         <v>102</v>
@@ -5895,25 +5895,25 @@
         <v>100.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.9949745354317042</v>
+        <v>-0.9949408799911297</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.3035185193330586E-5</v>
+        <v>-1.0771451758028578E-5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.9949592124805733</v>
+        <v>0.9949591426401483</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.9899438344999626</v>
+        <v>0.9899436955232189</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM36" t="n">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO36" t="s">
         <v>102</v>
@@ -5925,25 +5925,25 @@
         <v>200.0</v>
       </c>
       <c r="AR36" t="n">
-        <v>4.6724019860479765E-6</v>
+        <v>3.16392852907036E-5</v>
       </c>
       <c r="AS36" t="n">
-        <v>-2.7733816117577056E-5</v>
+        <v>-0.9949421062879668</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5692732802108367E-7</v>
+        <v>0.9949593098832388</v>
       </c>
       <c r="AU36" t="n">
-        <v>2.462618627983679E-14</v>
+        <v>0.9899440283233307</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW36" t="n">
-        <v>25.0</v>
+        <v>51.0</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.14999999999997726</v>
       </c>
       <c r="AY36" t="s">
         <v>102</v>
@@ -5960,25 +5960,25 @@
         <v>20.0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.6463591665950315E-6</v>
+        <v>-2.9848319488448967</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.9948704489331611</v>
+        <v>-1.9898487067346973</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9949606055840903</v>
+        <v>12.934433342502928</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9899466066642596</v>
+        <v>167.29956589165147</v>
       </c>
       <c r="H37" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I37" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="K37" t="s">
         <v>102</v>
@@ -5990,25 +5990,25 @@
         <v>40.0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.9899136759612022</v>
+        <v>-1.940143615778564E-5</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.9949683799928158</v>
+        <v>2.908661736240829E-7</v>
       </c>
       <c r="P37" t="n">
-        <v>4.974790266879872</v>
+        <v>7.469468954468539E-8</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.748538199442702</v>
+        <v>5.579296646176933E-15</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S37" t="n">
-        <v>39.0</v>
+        <v>53.0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U37" t="s">
         <v>102</v>
@@ -6020,25 +6020,25 @@
         <v>70.0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.9899425902858892</v>
+        <v>1.2293208321717284E-5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.2415919223556778E-5</v>
+        <v>-3.636580366495668E-5</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.979831403595327</v>
+        <v>2.9234951881562665E-7</v>
       </c>
       <c r="AA37" t="n">
-        <v>15.839058001043549</v>
+        <v>8.546824115172844E-14</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC37" t="n">
         <v>47.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.15999999999996817</v>
       </c>
       <c r="AE37" t="s">
         <v>102</v>
@@ -6050,25 +6050,25 @@
         <v>100.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.3824906933755306E-5</v>
+        <v>-9.790618710815926E-6</v>
       </c>
       <c r="AI37" t="n">
-        <v>2.2980659719800985E-5</v>
+        <v>-0.9949359328819082</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.4269128456589897E-7</v>
+        <v>0.9949591783316372</v>
       </c>
       <c r="AK37" t="n">
-        <v>2.0360802691066357E-14</v>
+        <v>0.9899437665463665</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM37" t="n">
-        <v>48.0</v>
+        <v>43.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AO37" t="s">
         <v>102</v>
@@ -6080,25 +6080,25 @@
         <v>200.0</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.1852625246930715E-6</v>
+        <v>5.86802656418872E-6</v>
       </c>
       <c r="AS37" t="n">
-        <v>-0.994947866760109</v>
+        <v>-0.9949832789562669</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.9949590803763826</v>
+        <v>0.9949591843272003</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.989943571623417</v>
+        <v>0.9899437784770477</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW37" t="n">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.18000000000000682</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AY37" t="s">
         <v>102</v>
@@ -6115,25 +6115,25 @@
         <v>20.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9949436758314327</v>
+        <v>-2.984840987348126</v>
       </c>
       <c r="E38" t="n">
-        <v>1.9899814932041704</v>
+        <v>0.9950042899512614</v>
       </c>
       <c r="F38" t="n">
-        <v>4.974791241806365</v>
+        <v>9.949560754607557</v>
       </c>
       <c r="G38" t="n">
-        <v>24.748547899553316</v>
+        <v>98.9937592096269</v>
       </c>
       <c r="H38" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I38" t="n">
-        <v>40.0</v>
+        <v>62.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="K38" t="s">
         <v>102</v>
@@ -6145,25 +6145,25 @@
         <v>40.0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9949615707784109</v>
+        <v>-2.4319958979726712E-5</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.995015647039784</v>
+        <v>-0.9949447622351201</v>
       </c>
       <c r="P38" t="n">
-        <v>1.9899187603613733</v>
+        <v>0.9949592126111284</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.9597766728381445</v>
+        <v>0.9899438347597567</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S38" t="n">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U38" t="s">
         <v>102</v>
@@ -6175,25 +6175,25 @@
         <v>70.0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.9949240142535186</v>
+        <v>2.4113871003252146E-5</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.9949874413818995</v>
+        <v>-0.9949702621243186</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.9899185164108708</v>
+        <v>0.9949591992491165</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.959775701954841</v>
+        <v>0.989943808170443</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC38" t="n">
-        <v>43.0</v>
+        <v>84.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE38" t="s">
         <v>102</v>
@@ -6205,25 +6205,25 @@
         <v>100.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>-8.883009217028853E-6</v>
+        <v>7.898876896477488E-6</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1.876982736470946E-5</v>
+        <v>-7.188969815682388E-6</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.554950170491793E-8</v>
+        <v>2.2631287066587902E-8</v>
       </c>
       <c r="AK38" t="n">
-        <v>7.318717241959756E-15</v>
+        <v>5.121751542903088E-16</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM38" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AO38" t="s">
         <v>102</v>
@@ -6235,25 +6235,25 @@
         <v>200.0</v>
       </c>
       <c r="AR38" t="n">
-        <v>-0.9949536308098499</v>
+        <v>-1.009792675467991E-5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.9949658640526426</v>
+        <v>-1.1966225681119712E-5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.9899181295125246</v>
+        <v>4.8637541993912237E-8</v>
       </c>
       <c r="AU38" t="n">
-        <v>3.9597741621626246</v>
+        <v>2.3656104912095763E-15</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW38" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.10000000000002274</v>
       </c>
       <c r="AY38" t="s">
         <v>102</v>
@@ -6270,25 +6270,25 @@
         <v>20.0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.9899036044267808</v>
+        <v>-8.586655639534216E-8</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9950699788223334</v>
+        <v>-1.9898742365524236</v>
       </c>
       <c r="F39" t="n">
-        <v>4.974792720619632</v>
+        <v>3.9798314764171323</v>
       </c>
       <c r="G39" t="n">
-        <v>24.748562613130083</v>
+        <v>15.839058580680572</v>
       </c>
       <c r="H39" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I39" t="n">
-        <v>46.0</v>
+        <v>76.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K39" t="s">
         <v>102</v>
@@ -6300,25 +6300,25 @@
         <v>40.0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.9950251097072235</v>
+        <v>-3.9087805116680505E-6</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9948765437495272</v>
+        <v>-0.9949879363308315</v>
       </c>
       <c r="P39" t="n">
-        <v>1.9899203267258976</v>
+        <v>0.9949592303420296</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.959782906716903</v>
+        <v>0.9899438700428039</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S39" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U39" t="s">
         <v>102</v>
@@ -6330,25 +6330,25 @@
         <v>70.0</v>
       </c>
       <c r="X39" t="n">
-        <v>-5.465481342411667E-5</v>
+        <v>-9.2083676558259E-5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.9899223893135658</v>
+        <v>0.9949733648322515</v>
       </c>
       <c r="Z39" t="n">
-        <v>3.9798318036013107</v>
+        <v>0.9949607823475972</v>
       </c>
       <c r="AA39" t="n">
-        <v>15.839061184956462</v>
+        <v>0.9899469584097427</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC39" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.09000000000003183</v>
       </c>
       <c r="AE39" t="s">
         <v>102</v>
@@ -6360,25 +6360,25 @@
         <v>100.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.9949488795261823</v>
+        <v>-0.9949736515188857</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.9949864924862897</v>
+        <v>-1.59577597784394E-5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.9899182869224852</v>
+        <v>0.9949591523123686</v>
       </c>
       <c r="AK39" t="n">
-        <v>3.959774788628518</v>
+        <v>0.9899437147701472</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM39" t="n">
-        <v>22.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO39" t="s">
         <v>102</v>
@@ -6390,25 +6390,25 @@
         <v>200.0</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.9949488915769475</v>
+        <v>-1.7722308382594597E-5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.3203643317705003E-5</v>
+        <v>-1.6996968144360776E-7</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9949591827444415</v>
+        <v>6.231676152879118E-8</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.9899437753274869</v>
+        <v>3.883378767436228E-15</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW39" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AY39" t="s">
         <v>102</v>
@@ -6425,22 +6425,22 @@
         <v>20.0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.984973119147357</v>
+        <v>-1.989965706335529</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9949648775548926</v>
+        <v>0.9949643470104503</v>
       </c>
       <c r="F40" t="n">
-        <v>9.949563029287496</v>
+        <v>4.974790820248565</v>
       </c>
       <c r="G40" t="n">
-        <v>98.99380447376458</v>
+        <v>24.748543705229388</v>
       </c>
       <c r="H40" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I40" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
@@ -6455,25 +6455,25 @@
         <v>40.0</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.9948941726840124</v>
+        <v>-1.505400486390753E-5</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.9950383183436129</v>
+        <v>-0.9948756634496587</v>
       </c>
       <c r="P40" t="n">
-        <v>1.9899201972077272</v>
+        <v>0.9949604672379238</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.95978239125524</v>
+        <v>0.9899463313663075</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S40" t="n">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U40" t="s">
         <v>102</v>
@@ -6485,25 +6485,25 @@
         <v>70.0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9949462176261775</v>
+        <v>5.575152431437115E-6</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.6883199671009333E-7</v>
+        <v>9.653144548464165E-6</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.9949590877083594</v>
+        <v>2.4653299846022492E-8</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.9899435862134508</v>
+        <v>6.077851932978926E-16</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC40" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="AE40" t="s">
         <v>102</v>
@@ -6515,25 +6515,25 @@
         <v>100.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>-2.7938592912266196E-5</v>
+        <v>0.9949688335605286</v>
       </c>
       <c r="AI40" t="n">
-        <v>-1.0358419268364484E-5</v>
+        <v>0.9949761910026346</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.7614475922300699E-7</v>
+        <v>1.989918195898614</v>
       </c>
       <c r="AK40" t="n">
-        <v>3.1026976201731105E-14</v>
+        <v>3.959774426368395</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM40" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.18999999999999773</v>
+        <v>0.14999999999997726</v>
       </c>
       <c r="AO40" t="s">
         <v>102</v>
@@ -6545,25 +6545,25 @@
         <v>200.0</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.9949451783193621</v>
+        <v>-0.9949431205327786</v>
       </c>
       <c r="AS40" t="n">
-        <v>4.4339721473903485E-5</v>
+        <v>0.9949343640013808</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.9949594830557764</v>
+        <v>1.9899182787678384</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.9899443729226178</v>
+        <v>3.959774756174357</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW40" t="n">
-        <v>43.0</v>
+        <v>28.0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.03999999999996362</v>
       </c>
       <c r="AY40" t="s">
         <v>102</v>
@@ -6580,22 +6580,22 @@
         <v>20.0</v>
       </c>
       <c r="D41" t="n">
-        <v>4.199502581484632E-5</v>
+        <v>-0.9949018651794082</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.2137509050490395E-5</v>
+        <v>2.9849942664757734</v>
       </c>
       <c r="F41" t="n">
-        <v>3.7910769989935034E-7</v>
+        <v>9.949564729861677</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4372264812297586E-13</v>
+        <v>98.99383831370747</v>
       </c>
       <c r="H41" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I41" t="n">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.01999999999998181</v>
@@ -6610,25 +6610,25 @@
         <v>40.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9949302925602235</v>
+        <v>0.9948345743632558</v>
       </c>
       <c r="O41" t="n">
-        <v>3.685300195406338E-5</v>
+        <v>6.150650046673856E-5</v>
       </c>
       <c r="P41" t="n">
-        <v>0.9949594858553894</v>
+        <v>0.9949628596626034</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.9899443784936208</v>
+        <v>0.9899510921079855</v>
       </c>
       <c r="R41" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S41" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U41" t="s">
         <v>102</v>
@@ -6640,25 +6640,25 @@
         <v>70.0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.9899260543363864</v>
+        <v>9.281399333651705E-6</v>
       </c>
       <c r="Y41" t="n">
-        <v>-3.773921759140262E-5</v>
+        <v>0.9949238268516148</v>
       </c>
       <c r="Z41" t="n">
-        <v>3.979831510932911</v>
+        <v>0.9949593144730215</v>
       </c>
       <c r="AA41" t="n">
-        <v>15.839058855414537</v>
+        <v>0.989944037456625</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC41" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE41" t="s">
         <v>102</v>
@@ -6670,25 +6670,25 @@
         <v>100.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.0108744692862163E-5</v>
+        <v>1.4444553295364446E-5</v>
       </c>
       <c r="AI41" t="n">
-        <v>-0.9949761714294834</v>
+        <v>5.526702986873385E-6</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.9949591982774102</v>
+        <v>4.745331239064399E-8</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.9899438062368269</v>
+        <v>2.251816856844046E-15</v>
       </c>
       <c r="AL41" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM41" t="n">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AO41" t="s">
         <v>102</v>
@@ -6700,25 +6700,25 @@
         <v>200.0</v>
       </c>
       <c r="AR41" t="n">
-        <v>9.439803485003184E-6</v>
+        <v>1.8520218775309777E-5</v>
       </c>
       <c r="AS41" t="n">
-        <v>-0.9949549436529186</v>
+        <v>0.9949618361165208</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.994959077477823</v>
+        <v>0.994959127170052</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.9899435658555206</v>
+        <v>0.9899436647389916</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW41" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY41" t="s">
         <v>102</v>
@@ -6735,25 +6735,25 @@
         <v>20.0</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.7936883201002686E-5</v>
+        <v>-0.99491051534005</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9949358844575177</v>
+        <v>-1.9898022268675601</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9949594452783224</v>
+        <v>4.974793102855664</v>
       </c>
       <c r="G42" t="n">
-        <v>0.989944297748547</v>
+        <v>24.74856641622028</v>
       </c>
       <c r="H42" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I42" t="n">
-        <v>54.0</v>
+        <v>35.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K42" t="s">
         <v>102</v>
@@ -6765,25 +6765,25 @@
         <v>40.0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.9848286224340144</v>
+        <v>1.8720055927150562E-5</v>
       </c>
       <c r="O42" t="n">
-        <v>2.4171306071278324E-6</v>
+        <v>2.9849140167700736</v>
       </c>
       <c r="P42" t="n">
-        <v>8.954601387461754</v>
+        <v>8.954601982659536</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.18488600833196</v>
+        <v>80.1848966678501</v>
       </c>
       <c r="R42" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S42" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="U42" t="s">
         <v>102</v>
@@ -6795,25 +6795,25 @@
         <v>70.0</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.9949531902187105</v>
+        <v>-0.994968242373117</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.4071511135165383E-6</v>
+        <v>-0.9950239523797185</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.9949590633703735</v>
+        <v>1.989918978403832</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.989943537782851</v>
+        <v>3.9597775406117504</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC42" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE42" t="s">
         <v>102</v>
@@ -6825,25 +6825,25 @@
         <v>100.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.4242610309440236E-5</v>
+        <v>0.9949227784031623</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.9949498199266437</v>
+        <v>1.1300357120948648E-5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.9949591891068792</v>
+        <v>0.9949593374092061</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.9899437879882186</v>
+        <v>0.9899440830977664</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM42" t="n">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AO42" t="s">
         <v>102</v>
@@ -6855,25 +6855,25 @@
         <v>200.0</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.9949920065404655</v>
+        <v>-3.577430134076682E-5</v>
       </c>
       <c r="AS42" t="n">
-        <v>-2.0375551587454992E-5</v>
+        <v>3.680110395383236E-5</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.9949593602547537</v>
+        <v>5.225889410098716E-7</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.9899441285585489</v>
+        <v>2.730992012658191E-13</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW42" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="AY42" t="s">
         <v>102</v>
@@ -6890,25 +6890,25 @@
         <v>20.0</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.9848557578468973</v>
+        <v>3.9797504584950825</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9949095456888395</v>
+        <v>-0.9949426267528834</v>
       </c>
       <c r="F43" t="n">
-        <v>9.949560776469827</v>
+        <v>16.914203119953</v>
       </c>
       <c r="G43" t="n">
-        <v>98.99375964466687</v>
+        <v>286.09026718302783</v>
       </c>
       <c r="H43" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I43" t="n">
-        <v>56.0</v>
+        <v>39.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K43" t="s">
         <v>102</v>
@@ -6920,22 +6920,22 @@
         <v>40.0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9899422362296835</v>
+        <v>0.9949962007154624</v>
       </c>
       <c r="O43" t="n">
-        <v>-2.4257621815424937E-6</v>
+        <v>-2.2130364992713015E-5</v>
       </c>
       <c r="P43" t="n">
-        <v>3.9798313699482932</v>
+        <v>0.994959434045402</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.839057733224509</v>
+        <v>0.9899442753959466</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S43" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.01999999999998181</v>
@@ -6950,25 +6950,25 @@
         <v>70.0</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.9949671975549051</v>
+        <v>1.9899306603027287</v>
       </c>
       <c r="Y43" t="n">
-        <v>-4.2863417602866485E-5</v>
+        <v>0.9949565568158225</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.9949594361229543</v>
+        <v>4.974790315733468</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.9899442795301072</v>
+        <v>24.748538685515502</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC43" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE43" t="s">
         <v>102</v>
@@ -6980,25 +6980,25 @@
         <v>100.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.9949871358576305</v>
+        <v>-2.6576525543973843E-6</v>
       </c>
       <c r="AI43" t="n">
-        <v>-0.9949310282050096</v>
+        <v>2.005706953494188E-5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.9899184263850245</v>
+        <v>8.121163119767516E-8</v>
       </c>
       <c r="AK43" t="n">
-        <v>3.959775343666652</v>
+        <v>6.5953290417872054E-15</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM43" t="n">
-        <v>56.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO43" t="s">
         <v>102</v>
@@ -7010,25 +7010,25 @@
         <v>200.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>1.7097798551966308E-5</v>
+        <v>-2.23693108401626E-5</v>
       </c>
       <c r="AS43" t="n">
-        <v>-0.9949232000725342</v>
+        <v>-0.9949810805885493</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.9949593641104144</v>
+        <v>0.9949592562433978</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.9899441362310002</v>
+        <v>0.9899439215844152</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW43" t="n">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY43" t="s">
         <v>102</v>
@@ -7045,22 +7045,22 @@
         <v>20.0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9949199961265949</v>
+        <v>0.9950004208668969</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.9948990372190277</v>
+        <v>0.9949807287916168</v>
       </c>
       <c r="F44" t="n">
-        <v>1.9899191146467636</v>
+        <v>1.9899185571457316</v>
       </c>
       <c r="G44" t="n">
-        <v>3.9597780828365594</v>
+        <v>3.9597758640729506</v>
       </c>
       <c r="H44" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I44" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -7075,25 +7075,25 @@
         <v>40.0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.1776799775619338E-5</v>
+        <v>-0.9949598094989165</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9948923148310489</v>
+        <v>-2.9849333763025143</v>
       </c>
       <c r="P44" t="n">
-        <v>0.9949599568400735</v>
+        <v>9.949561490471432</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9899453157152011</v>
+        <v>98.99377385267209</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S44" t="n">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U44" t="s">
         <v>102</v>
@@ -7105,25 +7105,25 @@
         <v>70.0</v>
       </c>
       <c r="X44" t="n">
-        <v>-1.9899296293130928</v>
+        <v>3.798697159951417E-5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.9899444790698682</v>
+        <v>0.9949542738466256</v>
       </c>
       <c r="Z44" t="n">
-        <v>7.959662646892774</v>
+        <v>0.9949593471511093</v>
       </c>
       <c r="AA44" t="n">
-        <v>63.35622945234008</v>
+        <v>0.9899441024833617</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC44" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AE44" t="s">
         <v>102</v>
@@ -7135,25 +7135,25 @@
         <v>100.0</v>
       </c>
       <c r="AH44" t="n">
-        <v>-1.9898907230809495</v>
+        <v>-0.9949467672321901</v>
       </c>
       <c r="AI44" t="n">
-        <v>9.673814363291618E-6</v>
+        <v>-0.9949477902375324</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3.9798313007339132</v>
+        <v>1.9899181654598337</v>
       </c>
       <c r="AK44" t="n">
-        <v>15.839057182301392</v>
+        <v>3.9597743052270302</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM44" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0999999999999659</v>
       </c>
       <c r="AO44" t="s">
         <v>102</v>
@@ -7165,25 +7165,25 @@
         <v>200.0</v>
       </c>
       <c r="AR44" t="n">
-        <v>-1.8396599599391288E-5</v>
+        <v>1.5095317300151198E-5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.9949740712450176</v>
+        <v>-2.2440415669297527E-5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.9949591714687145</v>
+        <v>1.451120752449242E-7</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.9899437528897108</v>
+        <v>2.1057514381888543E-14</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW44" t="n">
-        <v>29.0</v>
+        <v>57.0</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="AY44" t="s">
         <v>102</v>
@@ -7200,25 +7200,25 @@
         <v>20.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.9899327287599426</v>
+        <v>-0.9950096793675854</v>
       </c>
       <c r="E45" t="n">
-        <v>-7.20174823961385E-5</v>
+        <v>0.9948850466381685</v>
       </c>
       <c r="F45" t="n">
-        <v>3.9798323026859173</v>
+        <v>1.989919704670779</v>
       </c>
       <c r="G45" t="n">
-        <v>15.83906515750229</v>
+        <v>3.9597804310370406</v>
       </c>
       <c r="H45" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I45" t="n">
-        <v>65.0</v>
+        <v>36.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K45" t="s">
         <v>102</v>
@@ -7230,25 +7230,25 @@
         <v>40.0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9950381439474435</v>
+        <v>-4.060388294553063E-5</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9949941212806872</v>
+        <v>0.9949883046506399</v>
       </c>
       <c r="P45" t="n">
-        <v>1.989919617322375</v>
+        <v>0.994959558701602</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.959780083404427</v>
+        <v>0.9899445234516866</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S45" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="U45" t="s">
         <v>102</v>
@@ -7260,25 +7260,25 @@
         <v>70.0</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.9949650539585972</v>
+        <v>0.9949322222456861</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.9949918807000342</v>
+        <v>0.9949453190002027</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.9899183414843051</v>
+        <v>1.9899182877245138</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.9597750057756476</v>
+        <v>3.959774791820461</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC45" t="n">
-        <v>32.0</v>
+        <v>43.0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AE45" t="s">
         <v>102</v>
@@ -7290,25 +7290,25 @@
         <v>100.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>5.269913278584214E-6</v>
+        <v>-3.269851749962253E-5</v>
       </c>
       <c r="AI45" t="n">
-        <v>-3.596412110397068E-5</v>
+        <v>3.475021891062623E-5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.621136410141389E-7</v>
+        <v>4.516933032050474E-7</v>
       </c>
       <c r="AK45" t="n">
-        <v>6.870356080568889E-14</v>
+        <v>2.040268401602869E-13</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM45" t="n">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="AO45" t="s">
         <v>102</v>
@@ -7320,25 +7320,25 @@
         <v>200.0</v>
       </c>
       <c r="AR45" t="n">
-        <v>-1.4112389126618328E-5</v>
+        <v>1.0556534459752664E-5</v>
       </c>
       <c r="AS45" t="n">
-        <v>-2.6919111953511143E-5</v>
+        <v>-0.9949740102387121</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.832742348994998E-7</v>
+        <v>0.9949591260621453</v>
       </c>
       <c r="AU45" t="n">
-        <v>3.3589445177997026E-14</v>
+        <v>0.989943662534348</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW45" t="n">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.15000000000000568</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AY45" t="s">
         <v>102</v>
@@ -7355,25 +7355,25 @@
         <v>20.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0590768382957568E-5</v>
+        <v>-0.9950204558335836</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.9949344733135532</v>
+        <v>-1.9899472974255654</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9949591951319796</v>
+        <v>4.974791248854736</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9899437999776767</v>
+        <v>24.74854796968166</v>
       </c>
       <c r="H46" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I46" t="n">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="K46" t="s">
         <v>102</v>
@@ -7385,25 +7385,25 @@
         <v>40.0</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.9949353514479659</v>
+        <v>-2.984832035661896</v>
       </c>
       <c r="O46" t="n">
-        <v>0.995015163484345</v>
+        <v>-0.9949748507408327</v>
       </c>
       <c r="P46" t="n">
-        <v>1.989918855292661</v>
+        <v>9.9495604613134</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.9597770506492544</v>
+        <v>98.99375337333092</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S46" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="U46" t="s">
         <v>102</v>
@@ -7415,25 +7415,25 @@
         <v>70.0</v>
       </c>
       <c r="X46" t="n">
-        <v>9.690040368331464E-6</v>
+        <v>0.9949568471693181</v>
       </c>
       <c r="Y46" t="n">
-        <v>-2.903010321815755E-5</v>
+        <v>-1.9899065790377188</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.858227136608548E-7</v>
+        <v>4.974790254614039</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.453008091228403E-14</v>
+        <v>24.748538077402813</v>
       </c>
       <c r="AB46" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC46" t="n">
-        <v>63.0</v>
+        <v>51.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="AE46" t="s">
         <v>102</v>
@@ -7445,25 +7445,25 @@
         <v>100.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>-3.375710485531769E-5</v>
+        <v>1.4680306307348357E-5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1.1835012603249483E-5</v>
+        <v>-0.9949452297777499</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2.538644316985028E-7</v>
+        <v>0.9949591354963765</v>
       </c>
       <c r="AK46" t="n">
-        <v>6.44471496816038E-14</v>
+        <v>0.9899436813076968</v>
       </c>
       <c r="AL46" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM46" t="n">
-        <v>24.0</v>
+        <v>50.0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.08000000000004093</v>
       </c>
       <c r="AO46" t="s">
         <v>102</v>
@@ -7475,25 +7475,25 @@
         <v>200.0</v>
       </c>
       <c r="AR46" t="n">
-        <v>-0.9949251537998339</v>
+        <v>9.352702506630411E-6</v>
       </c>
       <c r="AS46" t="n">
-        <v>-1.1483588021565093E-5</v>
+        <v>8.578310655250444E-6</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9949593055752395</v>
+        <v>3.195311748527274E-8</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.9899440197507627</v>
+        <v>1.0210017170276426E-15</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW46" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="AY46" t="s">
         <v>102</v>
@@ -7510,25 +7510,25 @@
         <v>20.0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.994914954777139</v>
+        <v>-2.8320436138943645E-5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9950580681578284</v>
+        <v>-2.2110647827756165E-5</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9899204529894945</v>
+        <v>2.561098710884835E-7</v>
       </c>
       <c r="G47" t="n">
-        <v>3.9597834092259148</v>
+        <v>6.559226606895963E-14</v>
       </c>
       <c r="H47" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I47" t="n">
-        <v>41.0</v>
+        <v>74.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K47" t="s">
         <v>102</v>
@@ -7540,25 +7540,25 @@
         <v>40.0</v>
       </c>
       <c r="N47" t="n">
-        <v>8.990619417205013E-5</v>
+        <v>0.9950403401156567</v>
       </c>
       <c r="O47" t="n">
-        <v>0.99501366567859</v>
+        <v>-0.994936606587716</v>
       </c>
       <c r="P47" t="n">
-        <v>0.9949612611712269</v>
+        <v>1.9899195341028673</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9899479112314383</v>
+        <v>3.9597797522041724</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S47" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.0</v>
       </c>
       <c r="U47" t="s">
         <v>102</v>
@@ -7570,25 +7570,25 @@
         <v>70.0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.9949339205562798</v>
+        <v>3.6872849305067472E-6</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.994972251281458</v>
+        <v>0.9949189477745369</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.989918272080395</v>
+        <v>0.9949593721581991</v>
       </c>
       <c r="AA47" t="n">
-        <v>3.9597747295594248</v>
+        <v>0.9899441522454376</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC47" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AE47" t="s">
         <v>102</v>
@@ -7600,25 +7600,25 @@
         <v>100.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.9948953256971049</v>
+        <v>-1.9898749160044222</v>
       </c>
       <c r="AI47" t="n">
-        <v>-1.2866635823501158E-5</v>
+        <v>-0.9949555981487149</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.994959884772495</v>
+        <v>4.974790525208981</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.9899451723064965</v>
+        <v>24.74854076970905</v>
       </c>
       <c r="AL47" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM47" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="AO47" t="s">
         <v>102</v>
@@ -7630,22 +7630,22 @@
         <v>200.0</v>
       </c>
       <c r="AR47" t="n">
-        <v>-1.722988725324926E-5</v>
+        <v>0.9949788001803052</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.9949985485181785</v>
+        <v>-4.624339429383204E-6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9949594318471</v>
+        <v>0.9949591419475077</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.9899442710215041</v>
+        <v>0.9899436941449207</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW47" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="AX47" t="n">
         <v>0.060000000000002274</v>
@@ -7665,25 +7665,25 @@
         <v>20.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9949411670998348</v>
+        <v>0.995011396170978</v>
       </c>
       <c r="E48" t="n">
-        <v>1.9898780388327575</v>
+        <v>-0.9949337162015991</v>
       </c>
       <c r="F48" t="n">
-        <v>4.974790539683628</v>
+        <v>1.9899187892849817</v>
       </c>
       <c r="G48" t="n">
-        <v>24.748540913725723</v>
+        <v>3.9597767879494072</v>
       </c>
       <c r="H48" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I48" t="n">
-        <v>91.0</v>
+        <v>46.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K48" t="s">
         <v>102</v>
@@ -7695,25 +7695,25 @@
         <v>40.0</v>
       </c>
       <c r="N48" t="n">
-        <v>1.049554185191635E-5</v>
+        <v>0.9950443664022949</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.9949745498741832</v>
+        <v>0.9950724414531847</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9949591291550703</v>
+        <v>1.9899221397067812</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.989943668689016</v>
+        <v>3.9597901220952147</v>
       </c>
       <c r="R48" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S48" t="n">
-        <v>61.0</v>
+        <v>38.0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="U48" t="s">
         <v>102</v>
@@ -7725,25 +7725,25 @@
         <v>70.0</v>
       </c>
       <c r="X48" t="n">
-        <v>4.1526709011827854E-5</v>
+        <v>-3.5792599114114085E-5</v>
       </c>
       <c r="Y48" t="n">
-        <v>5.0004200652072E-5</v>
+        <v>-0.9949756981176071</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.38184273987963E-7</v>
+        <v>0.994959368970548</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.025528771607287E-13</v>
+        <v>0.9899441459022712</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC48" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.009999999999990905</v>
       </c>
       <c r="AE48" t="s">
         <v>102</v>
@@ -7755,25 +7755,25 @@
         <v>100.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.772897571310038E-7</v>
+        <v>5.8023515697026094E-5</v>
       </c>
       <c r="AI48" t="n">
-        <v>7.540342817761121E-6</v>
+        <v>-0.9949090332475092</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.1286168444257783E-8</v>
+        <v>0.9949602129432762</v>
       </c>
       <c r="AK48" t="n">
-        <v>1.2737759815216014E-16</v>
+        <v>0.9899458253401295</v>
       </c>
       <c r="AL48" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM48" t="n">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="AO48" t="s">
         <v>102</v>
@@ -7785,25 +7785,25 @@
         <v>200.0</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.9949395071691152</v>
+        <v>-0.9949754061816672</v>
       </c>
       <c r="AS48" t="n">
-        <v>-0.9949429186615701</v>
+        <v>-0.9949605142194441</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.9899182357523983</v>
+        <v>1.9899181706416869</v>
       </c>
       <c r="AU48" t="n">
-        <v>3.9597745849799377</v>
+        <v>3.9597743258499576</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW48" t="n">
-        <v>47.0</v>
+        <v>73.0</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AY48" t="s">
         <v>102</v>
@@ -7820,22 +7820,22 @@
         <v>20.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.9898909984661195</v>
+        <v>-0.9950582715914817</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9950504498323082</v>
+        <v>-1.98998075967658</v>
       </c>
       <c r="F49" t="n">
-        <v>4.97479200844726</v>
+        <v>4.9747931458583885</v>
       </c>
       <c r="G49" t="n">
-        <v>24.74855552731072</v>
+        <v>24.7485668440796</v>
       </c>
       <c r="H49" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I49" t="n">
-        <v>67.0</v>
+        <v>44.0</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -7850,22 +7850,22 @@
         <v>40.0</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.994962163124739</v>
+        <v>-0.9949532942039855</v>
       </c>
       <c r="O49" t="n">
-        <v>7.022395582021541E-8</v>
+        <v>-0.9948539262852502</v>
       </c>
       <c r="P49" t="n">
-        <v>0.9949590595588447</v>
+        <v>1.9899202940117071</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.9899435301982206</v>
+        <v>3.959782776519639</v>
       </c>
       <c r="R49" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S49" t="n">
-        <v>64.0</v>
+        <v>38.0</v>
       </c>
       <c r="T49" t="n">
         <v>0.009999999999990905</v>
@@ -7880,25 +7880,25 @@
         <v>70.0</v>
       </c>
       <c r="X49" t="n">
-        <v>-7.245012948795047E-6</v>
+        <v>1.737784645087E-5</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.9949248462085477</v>
+        <v>0.9950077872994514</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.9949592939296856</v>
+        <v>0.9949595960213315</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.9899439965770586</v>
+        <v>0.9899445977149313</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC49" t="n">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000038654</v>
       </c>
       <c r="AE49" t="s">
         <v>102</v>
@@ -7910,25 +7910,25 @@
         <v>100.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>3.8138154810794805E-5</v>
+        <v>0.9949330049793329</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.265531267457981E-5</v>
+        <v>-4.100110509799179E-6</v>
       </c>
       <c r="AJ49" t="n">
-        <v>3.203389020711711E-7</v>
+        <v>0.9949591907134945</v>
       </c>
       <c r="AK49" t="n">
-        <v>1.0261701218016335E-13</v>
+        <v>0.9899437911852519</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM49" t="n">
-        <v>36.0</v>
+        <v>52.0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO49" t="s">
         <v>102</v>
@@ -7940,25 +7940,25 @@
         <v>200.0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.9949419097686084</v>
+        <v>2.9664229464078184E-5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.0567762483738378E-5</v>
+        <v>0.9949679583123084</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.9949591347359643</v>
+        <v>0.9949592488983505</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.9899436797945388</v>
+        <v>0.9899439069683699</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW49" t="n">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.18000000000000682</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="AY49" t="s">
         <v>102</v>
@@ -7975,25 +7975,25 @@
         <v>20.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.9899113314078394</v>
+        <v>-0.9948346346717688</v>
       </c>
       <c r="E50" t="n">
-        <v>8.781262734325568E-5</v>
+        <v>-0.9949439769275543</v>
       </c>
       <c r="F50" t="n">
-        <v>3.979832720528048</v>
+        <v>1.989921205882716</v>
       </c>
       <c r="G50" t="n">
-        <v>15.839068483385683</v>
+        <v>3.9597864056217227</v>
       </c>
       <c r="H50" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I50" t="n">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="K50" t="s">
         <v>102</v>
@@ -8005,25 +8005,25 @@
         <v>40.0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9949611985331146</v>
+        <v>-0.994953983544654</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.0344995566764288E-5</v>
+        <v>0.995008991608722</v>
       </c>
       <c r="P50" t="n">
-        <v>0.9949592410768737</v>
+        <v>1.9899186212596476</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.9899438914042685</v>
+        <v>3.959776119235897</v>
       </c>
       <c r="R50" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S50" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="U50" t="s">
         <v>102</v>
@@ -8035,25 +8035,25 @@
         <v>70.0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.9949607855158282</v>
+        <v>1.352080167980548E-5</v>
       </c>
       <c r="Y50" t="n">
-        <v>-8.899627578512403E-6</v>
+        <v>0.9949604289223583</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.9949590737214038</v>
+        <v>0.9949590939980126</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.9899435583805538</v>
+        <v>0.9899435987293461</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC50" t="n">
-        <v>59.0</v>
+        <v>74.0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="AE50" t="s">
         <v>102</v>
@@ -8065,22 +8065,22 @@
         <v>100.0</v>
       </c>
       <c r="AH50" t="n">
-        <v>-0.994905883845409</v>
+        <v>4.020974523326782E-5</v>
       </c>
       <c r="AI50" t="n">
-        <v>-0.9949665502570669</v>
+        <v>-0.9949674690313803</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.9899186784421588</v>
+        <v>0.9949593933238319</v>
       </c>
       <c r="AK50" t="n">
-        <v>3.9597763468129874</v>
+        <v>0.9899441943633276</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM50" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN50" t="n">
         <v>0.05000000000001137</v>
@@ -8095,25 +8095,25 @@
         <v>200.0</v>
       </c>
       <c r="AR50" t="n">
-        <v>2.9178224793411066E-5</v>
+        <v>0.9949687834277025</v>
       </c>
       <c r="AS50" t="n">
-        <v>-5.998905391606138E-5</v>
+        <v>4.143499938776484E-6</v>
       </c>
       <c r="AT50" t="n">
-        <v>8.828557724882558E-7</v>
+        <v>0.994959080911066</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.794343150158348E-13</v>
+        <v>0.9899435726873932</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW50" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY50" t="s">
         <v>102</v>
@@ -8130,25 +8130,25 @@
         <v>20.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9949227129470454</v>
+        <v>-1.9898426811642316</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.669278377979033E-5</v>
+        <v>-0.9949944260451394</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9949608040498639</v>
+        <v>4.9747914594301506</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9899470015955516</v>
+        <v>24.748550064819167</v>
       </c>
       <c r="H51" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I51" t="n">
-        <v>90.0</v>
+        <v>56.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="K51" t="s">
         <v>102</v>
@@ -8160,25 +8160,25 @@
         <v>40.0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9948798091106961</v>
+        <v>1.8895190349932635E-5</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.9949879836918336</v>
+        <v>-0.9949411013133072</v>
       </c>
       <c r="P51" t="n">
-        <v>1.9899195171295219</v>
+        <v>0.9949591889045131</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.9597796846529896</v>
+        <v>0.9899437875855265</v>
       </c>
       <c r="R51" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S51" t="n">
-        <v>46.0</v>
+        <v>79.0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.11000000000001364</v>
       </c>
       <c r="U51" t="s">
         <v>102</v>
@@ -8190,25 +8190,25 @@
         <v>70.0</v>
       </c>
       <c r="X51" t="n">
-        <v>-2.9183903341491597E-6</v>
+        <v>-0.9949323836711628</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.8105758378442307E-5</v>
+        <v>-5.006467868666557E-6</v>
       </c>
       <c r="Z51" t="n">
-        <v>6.672630092907639E-8</v>
+        <v>0.9949591987434623</v>
       </c>
       <c r="AA51" t="n">
-        <v>4.45239923567766E-15</v>
+        <v>0.9899438071642325</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC51" t="n">
-        <v>32.0</v>
+        <v>58.0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.040000000000020464</v>
       </c>
       <c r="AE51" t="s">
         <v>102</v>
@@ -8220,25 +8220,25 @@
         <v>100.0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.9949497860049402</v>
+        <v>-0.9949649417011568</v>
       </c>
       <c r="AI51" t="n">
-        <v>-0.9949869889561147</v>
+        <v>3.4339176502082736E-5</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.9899182891107223</v>
+        <v>0.9949592989134537</v>
       </c>
       <c r="AK51" t="n">
-        <v>3.9597747973373445</v>
+        <v>0.9899440064943513</v>
       </c>
       <c r="AL51" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM51" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="AO51" t="s">
         <v>102</v>
@@ -8250,25 +8250,25 @@
         <v>200.0</v>
       </c>
       <c r="AR51" t="n">
-        <v>-1.4419815358351872E-5</v>
+        <v>3.9239314200490355E-6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5572572270752016E-6</v>
+        <v>-2.197579330683491E-5</v>
       </c>
       <c r="AT51" t="n">
-        <v>4.1732988620424294E-8</v>
+        <v>9.886526797231454E-8</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.7416423391924636E-15</v>
+        <v>9.774341211237563E-15</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW51" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.22999999999996135</v>
       </c>
       <c r="AY51" t="s">
         <v>102</v>
@@ -8285,25 +8285,25 @@
         <v>20.0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01989980673036301</v>
+        <v>-0.2785982940463647</v>
       </c>
       <c r="E52" t="n">
-        <v>0.19899344289180868</v>
+        <v>-0.1790767623711315</v>
       </c>
       <c r="F52" t="n">
-        <v>3.6813426299666814</v>
+        <v>4.238518120779972</v>
       </c>
       <c r="G52" t="n">
-        <v>29.36155281653434</v>
+        <v>33.00453415414271</v>
       </c>
       <c r="H52" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I52" t="n">
-        <v>57.12</v>
+        <v>61.2</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01359999999999502</v>
+        <v>0.016999999999999318</v>
       </c>
       <c r="K52" t="s">
         <v>102</v>
@@ -8315,25 +8315,25 @@
         <v>40.0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.07959663414981141</v>
+        <v>-0.09949436432604675</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.039795613332283764</v>
+        <v>-0.2188807929464102</v>
       </c>
       <c r="P52" t="n">
-        <v>3.0246732689333182</v>
+        <v>1.9501183260035393</v>
       </c>
       <c r="Q52" t="n">
-        <v>14.017567379493839</v>
+        <v>8.988651242861154</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="S52" t="n">
-        <v>42.84</v>
+        <v>44.48</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02040000000000191</v>
+        <v>0.02220000000000027</v>
       </c>
       <c r="U52" t="s">
         <v>102</v>
@@ -8345,25 +8345,25 @@
         <v>70.0</v>
       </c>
       <c r="X52" t="n">
-        <v>-0.15919313966595833</v>
+        <v>2.7836873265529407E-6</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.03979615300673085</v>
+        <v>0.2387885907452136</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.6715303480570722</v>
+        <v>1.631732285121509</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.137638453820575</v>
+        <v>4.949710440643127</v>
       </c>
       <c r="AB52" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="AC52" t="n">
-        <v>37.96</v>
+        <v>40.86</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.03460000000000037</v>
+        <v>0.03720000000000482</v>
       </c>
       <c r="AE52" t="s">
         <v>102</v>
@@ -8375,25 +8375,25 @@
         <v>100.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.019895682349193554</v>
+        <v>0.019902332514330923</v>
       </c>
       <c r="AI52" t="n">
-        <v>-0.11939712502153776</v>
+        <v>0.019905161156993107</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1.333244406126302</v>
+        <v>1.3929421899851324</v>
       </c>
       <c r="AK52" t="n">
-        <v>4.969501597904339</v>
+        <v>3.880573002656972</v>
       </c>
       <c r="AL52" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="AM52" t="n">
-        <v>38.26</v>
+        <v>38.66</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.05380000000000052</v>
+        <v>0.0596000000000015</v>
       </c>
       <c r="AO52" t="s">
         <v>102</v>
@@ -8405,25 +8405,25 @@
         <v>200.0</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.03979790468977782</v>
+        <v>-0.01990019839185063</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.07959630829692206</v>
+        <v>0.09949399861305414</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.9949590196444583</v>
+        <v>0.9153622657766052</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.781897082046746</v>
+        <v>1.8214944456707816</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="AW52" t="n">
-        <v>35.48</v>
+        <v>36.5</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.11560000000000059</v>
+        <v>0.13060000000000171</v>
       </c>
       <c r="AY52" t="s">
         <v>102</v>
